--- a/VRNN_theano_version/output/vrnn-dis1-dataport.xlsx
+++ b/VRNN_theano_version/output/vrnn-dis1-dataport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="184" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all-builds" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,139 +13,150 @@
     <sheet name="notes" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="175">
-  <si>
-    <t>epochs</t>
-  </si>
-  <si>
-    <t>appliance</t>
-  </si>
-  <si>
-    <t>Initial LR</t>
-  </si>
-  <si>
-    <t>Log-likelihood</t>
-  </si>
-  <si>
-    <t>KL</t>
-  </si>
-  <si>
-    <t>MSE</t>
-  </si>
-  <si>
-    <t>MAE</t>
-  </si>
-  <si>
-    <t>best log-likelihood</t>
-  </si>
-  <si>
-    <t>Best MSE</t>
-  </si>
-  <si>
-    <t>Best MAE</t>
-  </si>
-  <si>
-    <t>Test MSE</t>
-  </si>
-  <si>
-    <t>Test MAE</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>LR changes</t>
-  </si>
-  <si>
-    <t>buildings</t>
-  </si>
-  <si>
-    <t>z_dim</t>
-  </si>
-  <si>
-    <t>rnn_dim</t>
-  </si>
-  <si>
-    <t>q_z_dim</t>
-  </si>
-  <si>
-    <t>p_z_dim</t>
-  </si>
-  <si>
-    <t>p_x_dim</t>
-  </si>
-  <si>
-    <t>x2s_dim</t>
-  </si>
-  <si>
-    <t>z2s_dim</t>
-  </si>
-  <si>
-    <t>0-air</t>
-  </si>
-  <si>
-    <t>18-03-22_19-08</t>
-  </si>
-  <si>
-    <t>const</t>
-  </si>
-  <si>
-    <t>18-03-22_20-06</t>
-  </si>
-  <si>
-    <t>18-03-23_11-25</t>
-  </si>
-  <si>
-    <t>0:0.0001, 100:0.00001</t>
-  </si>
-  <si>
-    <t>18-03-23_11-32</t>
-  </si>
-  <si>
-    <t>18-03-24_11-02</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>18-03-27_10-03</t>
-  </si>
-  <si>
-    <t>18-03-28_14-13</t>
-  </si>
-  <si>
-    <t>1-furnace</t>
-  </si>
-  <si>
-    <t>18-05-13_11-58</t>
-  </si>
-  <si>
-    <t>0:0.0001, 75:0.00001, 150:0.000001</t>
-  </si>
-  <si>
-    <t>5-dishwasher</t>
-  </si>
-  <si>
-    <t>18-03-22_17-12</t>
-  </si>
-  <si>
-    <t>18-03-23_17-36</t>
-  </si>
-  <si>
-    <t>18-03-24_10-28</t>
-  </si>
-  <si>
-    <t>18-03-25_20-20</t>
-  </si>
-  <si>
-    <t>18-03-26_11-25</t>
-  </si>
-  <si>
-    <r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="190">
+  <si>
+    <t xml:space="preserve">epochs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log-likelihood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best log-likelihood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best MSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best MAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test MSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test MAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buildings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z_dim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rnn_dim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q_z_dim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_z_dim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_x_dim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x2s_dim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z2s_dim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-22_19-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">const</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-22_20-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-23_11-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:0.0001, 100:0.00001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-23_11-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-24_11-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-27_10-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-28_14-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-furnace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-13_11-58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:0.0001, 75:0.00001, 150:0.000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-dishwasher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-22_17-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-23_17-36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-24_10-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-25_20-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-26_11-25</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-96</t>
     </r>
     <r>
@@ -179,13 +190,19 @@
     </r>
   </si>
   <si>
-    <t>18-04-13_13-47_app5</t>
-  </si>
-  <si>
-    <t>0:lr, 75:(lr/10), 150:(lr/100)</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-04-13_13-47_app5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:lr, 75:(lr/10), 150:(lr/100)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-204</t>
     </r>
     <r>
@@ -219,10 +236,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-13_13-49_app5</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-04-13_13-49_app5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-128</t>
     </r>
     <r>
@@ -256,31 +279,40 @@
     </r>
   </si>
   <si>
-    <t>18-04-13_13-52_app5</t>
-  </si>
-  <si>
-    <t>7-microwave</t>
-  </si>
-  <si>
-    <t>18-03-22_16-42</t>
-  </si>
-  <si>
-    <t>18-03-23_18-49</t>
-  </si>
-  <si>
-    <t>Building</t>
-  </si>
-  <si>
-    <t>TEST mse</t>
-  </si>
-  <si>
-    <t>y2s_dim</t>
-  </si>
-  <si>
-    <t>18-03-29_15-54_app0_2859</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-04-13_13-52_app5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-microwave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-22_16-42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-23_18-49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST mse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seq_length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y2s_dim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-29_15-54_app0_2859</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-49</t>
     </r>
     <r>
@@ -314,55 +346,61 @@
     </r>
   </si>
   <si>
-    <t>18-03-29_16-35_app0_2859</t>
-  </si>
-  <si>
-    <t>constant</t>
-  </si>
-  <si>
-    <t>-71(c)</t>
-  </si>
-  <si>
-    <t>18-03-29_16-46_app0_2859</t>
-  </si>
-  <si>
-    <t>{0:lr, 75:(lr/10), 150:(lr/100)}</t>
-  </si>
-  <si>
-    <t>-47(c)</t>
-  </si>
-  <si>
-    <t>18-03-29_16-49_app0_2859</t>
-  </si>
-  <si>
-    <t>-34(c)</t>
-  </si>
-  <si>
-    <t>18-04-02_10-50_app0_6990</t>
-  </si>
-  <si>
-    <t>-39(c)</t>
-  </si>
-  <si>
-    <t>18-04-02_10-52_app0_6990</t>
-  </si>
-  <si>
-    <t>18-04-02_10-55_app0_6990</t>
-  </si>
-  <si>
-    <t>-53(c)</t>
-  </si>
-  <si>
-    <t>18-04-16_11-52_app0</t>
-  </si>
-  <si>
-    <t>-66(c)</t>
-  </si>
-  <si>
-    <t>18-04-16_11-53_app0</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-03-29_16-35_app0_2859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-71(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-29_16-46_app0_2859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0:lr, 75:(lr/10), 150:(lr/100)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-47(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-29_16-49_app0_2859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-34(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-02_10-50_app0_6990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-39(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-02_10-52_app0_6990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-02_10-55_app0_6990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-53(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-16_11-52_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-66(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-16_11-53_app0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-63</t>
     </r>
     <r>
@@ -396,10 +434,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-16_11-55_app0</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-04-16_11-55_app0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-197</t>
     </r>
     <r>
@@ -433,10 +477,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-17_12-16_app0</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-04-17_12-16_app0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-216</t>
     </r>
     <r>
@@ -470,10 +520,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-17_12-21_app0</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-04-17_12-21_app0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-215</t>
     </r>
     <r>
@@ -507,10 +563,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-17_12-25_app0</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-04-17_12-25_app0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-30</t>
     </r>
     <r>
@@ -544,16 +606,22 @@
     </r>
   </si>
   <si>
-    <t>18-04-20_11-43_app0</t>
-  </si>
-  <si>
-    <t>18-04-20_11-44_app0</t>
-  </si>
-  <si>
-    <t>18-04-20_11-45_app0</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-04-20_11-43_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-20_11-44_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-20_11-45_app0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-305</t>
     </r>
     <r>
@@ -587,28 +655,34 @@
     </r>
   </si>
   <si>
-    <t>18-04-02_21-59_app1_2859</t>
-  </si>
-  <si>
-    <t>-351(c)</t>
-  </si>
-  <si>
-    <t>18-04-02_22-01_app1_2859</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>18-04-02_22-05_app1_2859</t>
-  </si>
-  <si>
-    <t>-20(c)</t>
-  </si>
-  <si>
-    <t>18-04-03_16-21_app1_6990</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-04-02_21-59_app1_2859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-351(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-02_22-01_app1_2859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-02_22-05_app1_2859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-03_16-21_app1_6990</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-24</t>
     </r>
     <r>
@@ -642,10 +716,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-03_16-24_app1_6990</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-04-03_16-24_app1_6990</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-22</t>
     </r>
     <r>
@@ -679,16 +759,22 @@
     </r>
   </si>
   <si>
-    <t>18-04-03_16-29_app1_6990</t>
-  </si>
-  <si>
-    <t>18-04-23_15-20_app1</t>
-  </si>
-  <si>
-    <t>18-04-26_17-10_app1</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-04-03_16-29_app1_6990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-23_15-20_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-26_17-10_app1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-232</t>
     </r>
     <r>
@@ -722,10 +808,16 @@
     </r>
   </si>
   <si>
-    <t>18-05-04_15-53_app1</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-05-04_15-53_app1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-267</t>
     </r>
     <r>
@@ -759,10 +851,16 @@
     </r>
   </si>
   <si>
-    <t>18-05-04_15-56_app1</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-05-04_15-56_app1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-301</t>
     </r>
     <r>
@@ -796,13 +894,19 @@
     </r>
   </si>
   <si>
-    <t>18-05-04_16-00_app1</t>
-  </si>
-  <si>
-    <t>18-04-30_12-49_app1</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-05-04_16-00_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-30_12-49_app1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-160</t>
     </r>
     <r>
@@ -836,10 +940,16 @@
     </r>
   </si>
   <si>
-    <t>18-05-07_11-33_app1</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-05-07_11-33_app1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-190</t>
     </r>
     <r>
@@ -873,10 +983,16 @@
     </r>
   </si>
   <si>
-    <t>18-05-07_11-34_app1</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-05-07_11-34_app1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-182</t>
     </r>
     <r>
@@ -910,49 +1026,55 @@
     </r>
   </si>
   <si>
-    <t>18-05-07_11-35_app1</t>
-  </si>
-  <si>
-    <t>18-05-02_11-49_app1</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>18-05-08_14-08_app1</t>
-  </si>
-  <si>
-    <t>Folder does not exist</t>
-  </si>
-  <si>
-    <t>18-05-08_15-53_app1</t>
-  </si>
-  <si>
-    <t>18-05-08_16-03_app1</t>
-  </si>
-  <si>
-    <t>2-refri</t>
-  </si>
-  <si>
-    <t>-21(c)</t>
-  </si>
-  <si>
-    <t>18-04-05_10-32_app2_2859</t>
-  </si>
-  <si>
-    <t>-42(c)</t>
-  </si>
-  <si>
-    <t>18-04-05_10-34_app2_2859</t>
-  </si>
-  <si>
-    <t>-56(c)</t>
-  </si>
-  <si>
-    <t>18-04-05_10-36_app2_2859</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-05-07_11-35_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-02_11-49_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-08_14-08_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folder does not exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-08_15-53_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-08_16-03_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-refri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-05_10-32_app2_2859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-42(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-05_10-34_app2_2859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-56(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-05_10-36_app2_2859</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-25</t>
     </r>
     <r>
@@ -986,25 +1108,31 @@
     </r>
   </si>
   <si>
-    <t>18-04-06_11-07_app2</t>
-  </si>
-  <si>
-    <t>Folders exist but no output</t>
-  </si>
-  <si>
-    <t>-97(c)</t>
-  </si>
-  <si>
-    <t>18-04-06_11-09_app2</t>
-  </si>
-  <si>
-    <t>-175(c)</t>
-  </si>
-  <si>
-    <t>18-04-06_11-11_app2</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-04-06_11-07_app2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folders exist but no output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-97(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-06_11-09_app2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-175(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-06_11-11_app2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-57</t>
     </r>
     <r>
@@ -1038,10 +1166,16 @@
     </r>
   </si>
   <si>
-    <t>18-05-08_12-05_app2</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-05-08_12-05_app2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-82</t>
     </r>
     <r>
@@ -1075,10 +1209,16 @@
     </r>
   </si>
   <si>
-    <t>18-05-08_12-06_app2</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-05-08_12-06_app2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-120</t>
     </r>
     <r>
@@ -1112,19 +1252,25 @@
     </r>
   </si>
   <si>
-    <t>18-05-08_12-07_app2</t>
-  </si>
-  <si>
-    <t>3-clotheswasher</t>
-  </si>
-  <si>
-    <t>-149(c)</t>
-  </si>
-  <si>
-    <t>18-04-09_11-13_app3</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-05-08_12-07_app2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-clotheswasher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-149(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-09_11-13_app3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-222</t>
     </r>
     <r>
@@ -1158,10 +1304,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-09_11-15_app3</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-04-09_11-15_app3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-295</t>
     </r>
     <r>
@@ -1195,10 +1347,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-09_11-17_app3</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-04-09_11-17_app3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-275</t>
     </r>
     <r>
@@ -1232,10 +1390,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-09_12-18_app3</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-04-09_12-18_app3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-287</t>
     </r>
     <r>
@@ -1269,10 +1433,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-09_12-20_app3</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-04-09_12-20_app3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-320</t>
     </r>
     <r>
@@ -1306,13 +1476,19 @@
     </r>
   </si>
   <si>
-    <t>18-04-09_12-22_app3</t>
-  </si>
-  <si>
-    <t>4-drye</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-04-09_12-22_app3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-drye</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-251</t>
     </r>
     <r>
@@ -1346,10 +1522,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-10_12-04_app4</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-04-10_12-04_app4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-344</t>
     </r>
     <r>
@@ -1383,10 +1565,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-10_12-06_app4</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-04-10_12-06_app4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-412</t>
     </r>
     <r>
@@ -1420,10 +1608,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-10_12-12_app4</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-04-10_12-12_app4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-291</t>
     </r>
     <r>
@@ -1457,10 +1651,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-11_12-01_app4</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-04-11_12-01_app4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-329</t>
     </r>
     <r>
@@ -1494,10 +1694,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-11_12-03_app4</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-04-11_12-03_app4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-374</t>
     </r>
     <r>
@@ -1531,13 +1737,19 @@
     </r>
   </si>
   <si>
-    <t>18-04-11_12-05_app4</t>
-  </si>
-  <si>
-    <t>6-kitchenapp</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-04-11_12-05_app4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-kitchenapp</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-603</t>
     </r>
     <r>
@@ -1571,10 +1783,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-12_16-11_app6</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-04-12_16-11_app6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-675</t>
     </r>
     <r>
@@ -1608,10 +1826,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-12_16-12_app6</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">18-04-12_16-12_app6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-424</t>
     </r>
     <r>
@@ -1645,27 +1869,70 @@
     </r>
   </si>
   <si>
-    <t>18-04-12_16-14_app6</t>
-  </si>
-  <si>
-    <t>Dave's</t>
-  </si>
-  <si>
-    <t>There are some folders without output, or some results without folders</t>
-  </si>
-  <si>
-    <t>elbrus</t>
-  </si>
-  <si>
-    <t>Has some folders before 03-22 that might have interesting things. Although there were before a fixing was done</t>
+    <t xml:space="preserve">18-04-12_16-14_app6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-15_10-58_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-15_11-02_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-15_11-04_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-17_15-09_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0:lr, 170:(lr/10)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-17_15-11_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-15_11-20_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-15_11-32_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refrigerator1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clotheswasher1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drye1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dishwasher1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dave's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are some folders without output, or some results without folders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elbrus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has some folders before 03-22 that might have interesting things. Although there were before a fixing was done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From now on, using the whole year for window</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1776,11 +2043,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1863,17 +2130,17 @@
   </sheetPr>
   <dimension ref="B1:X22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="13" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.3724489795918"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.6683673469388"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.33163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="13" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2745,23 +3012,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y77"/>
+  <dimension ref="A1:Y102"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R45" activeCellId="0" sqref="R45"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E104" activeCellId="0" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.29081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.07142857142857"/>
-    <col collapsed="false" hidden="false" max="14" min="8" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.3724489795918"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.5612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7040816326531"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="14" min="8" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="24.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2811,7 +3079,7 @@
         <v>13</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>15</v>
@@ -2832,7 +3100,7 @@
         <v>20</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>21</v>
@@ -2877,7 +3145,7 @@
         <v>30</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -2903,7 +3171,7 @@
         <v>0.001</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0.52</v>
@@ -2912,10 +3180,10 @@
         <v>0.34</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2932,7 +3200,7 @@
         <v>0.01</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>0.46</v>
@@ -2941,10 +3209,10 @@
         <v>0.28</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2961,7 +3229,7 @@
         <v>0.0001</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0.75</v>
@@ -2970,10 +3238,10 @@
         <v>0.47</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2993,7 +3261,7 @@
         <v>0.0001</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0.85</v>
@@ -3017,10 +3285,10 @@
         <v>30</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R7" s="0" t="n">
         <v>40</v>
@@ -3061,7 +3329,7 @@
         <v>0.001</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0.67</v>
@@ -3085,10 +3353,10 @@
         <v>30</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T8" s="0" t="n">
         <v>80</v>
@@ -3123,7 +3391,7 @@
         <v>0.01</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9" s="5" t="n">
         <v>0.55</v>
@@ -3147,10 +3415,10 @@
         <v>30</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T9" s="0" t="n">
         <v>80</v>
@@ -3188,7 +3456,7 @@
         <v>0.0001</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>6.28</v>
@@ -3215,10 +3483,10 @@
         <v>0.31</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T11" s="0" t="n">
         <v>150</v>
@@ -3253,7 +3521,7 @@
         <v>0.001</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>6.37</v>
@@ -3280,10 +3548,10 @@
         <v>0.29</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R12" s="0" t="n">
         <v>40</v>
@@ -3324,7 +3592,7 @@
         <v>0.01</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>3E-008</v>
@@ -3351,10 +3619,10 @@
         <v>0.45</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R13" s="0" t="n">
         <v>40</v>
@@ -3398,7 +3666,7 @@
         <v>0.0001</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>1.14</v>
@@ -3425,10 +3693,10 @@
         <v>0.23</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R15" s="0" t="n">
         <v>40</v>
@@ -3469,7 +3737,7 @@
         <v>0.001</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>0.24</v>
@@ -3496,10 +3764,10 @@
         <v>0.27</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R16" s="0" t="n">
         <v>40</v>
@@ -3540,7 +3808,7 @@
         <v>0.01</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>2E-007</v>
@@ -3567,10 +3835,10 @@
         <v>0.18</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R17" s="0" t="n">
         <v>40</v>
@@ -3614,7 +3882,7 @@
         <v>0.0001</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>0.57</v>
@@ -3641,10 +3909,10 @@
         <v>0.38</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R19" s="0" t="n">
         <v>40</v>
@@ -3712,10 +3980,10 @@
         <v>0.37</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R20" s="0" t="n">
         <v>40</v>
@@ -3783,10 +4051,10 @@
         <v>0.37</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R21" s="0" t="n">
         <v>40</v>
@@ -3812,7 +4080,7 @@
         <v>0.001</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>1.47</v>
@@ -3836,10 +4104,10 @@
         <v>30</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R23" s="0" t="n">
         <v>40</v>
@@ -3880,7 +4148,7 @@
         <v>0.01</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>2.53</v>
@@ -3904,10 +4172,10 @@
         <v>30</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R24" s="0" t="n">
         <v>40</v>
@@ -3948,29 +4216,29 @@
         <v>0.1</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3990,7 +4258,7 @@
         <v>0.0001</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>3.03</v>
@@ -4014,10 +4282,10 @@
         <v>30</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R27" s="0" t="n">
         <v>40</v>
@@ -4058,7 +4326,7 @@
         <v>0.001</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H28" s="5" t="n">
         <v>0.86</v>
@@ -4067,10 +4335,10 @@
         <v>0.36</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4087,7 +4355,7 @@
         <v>0.01</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>2.46</v>
@@ -4096,10 +4364,10 @@
         <v>0.77</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4124,7 +4392,7 @@
       <c r="G31" s="0" t="n">
         <v>0.04</v>
       </c>
-      <c r="H31" s="6" t="n">
+      <c r="H31" s="0" t="n">
         <v>1.12</v>
       </c>
       <c r="I31" s="0" t="n">
@@ -4146,10 +4414,10 @@
         <v>0.19</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R31" s="0" t="n">
         <v>40</v>
@@ -4195,7 +4463,7 @@
       <c r="G32" s="0" t="n">
         <v>0.94</v>
       </c>
-      <c r="H32" s="6" t="n">
+      <c r="H32" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I32" s="0" t="n">
@@ -4217,10 +4485,10 @@
         <v>0.35</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T32" s="0" t="n">
         <v>150</v>
@@ -4255,7 +4523,7 @@
         <v>0.0001</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>1.09</v>
@@ -4282,10 +4550,10 @@
         <v>0.32</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R33" s="0" t="n">
         <v>40</v>
@@ -4326,7 +4594,7 @@
         <v>0.001</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>0.67</v>
@@ -4350,10 +4618,10 @@
         <v>0.15</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R34" s="0" t="n">
         <v>40</v>
@@ -4394,7 +4662,7 @@
         <v>0.01</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H35" s="5" t="n">
         <v>0.49</v>
@@ -4418,10 +4686,10 @@
         <v>0.1</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R35" s="0" t="n">
         <v>40</v>
@@ -4485,17 +4753,17 @@
       <c r="L37" s="0" t="n">
         <v>0.24</v>
       </c>
-      <c r="M37" s="6" t="n">
+      <c r="M37" s="0" t="n">
         <v>0.55</v>
       </c>
       <c r="N37" s="0" t="n">
         <v>0.29</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R37" s="0" t="n">
         <v>40</v>
@@ -4536,7 +4804,7 @@
         <v>0.0001</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>1.26</v>
@@ -4563,10 +4831,10 @@
         <v>0.29</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R38" s="0" t="n">
         <v>40</v>
@@ -4607,7 +4875,7 @@
         <v>0.001</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H39" s="5" t="n">
         <v>0.11</v>
@@ -4624,17 +4892,17 @@
       <c r="L39" s="0" t="n">
         <v>0.06</v>
       </c>
-      <c r="M39" s="7" t="n">
+      <c r="M39" s="6" t="n">
         <v>1.39</v>
       </c>
       <c r="N39" s="0" t="n">
         <v>0.58</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R39" s="0" t="n">
         <v>40</v>
@@ -4675,7 +4943,7 @@
         <v>0.01</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>0.17</v>
@@ -4692,17 +4960,17 @@
       <c r="L40" s="0" t="n">
         <v>0.07</v>
       </c>
-      <c r="M40" s="7" t="n">
+      <c r="M40" s="6" t="n">
         <v>1.49</v>
       </c>
       <c r="N40" s="0" t="n">
         <v>0.61</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4749,10 +5017,10 @@
         <v>0.52</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R42" s="0" t="n">
         <v>40</v>
@@ -4781,7 +5049,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>3413</v>
@@ -4796,18 +5064,18 @@
         <v>0.0001</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R43" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>3413</v>
@@ -4822,18 +5090,18 @@
         <v>0.001</v>
       </c>
       <c r="O44" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="P44" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="R44" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="P44" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="R44" s="0" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>3413</v>
@@ -4848,13 +5116,13 @@
         <v>0.01</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R45" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4868,13 +5136,13 @@
         <v>200</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>0.0001</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>2.11</v>
@@ -4898,10 +5166,10 @@
         <v>30</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R47" s="0" t="n">
         <v>40</v>
@@ -4936,13 +5204,13 @@
         <v>200</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>0.001</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>0.8</v>
@@ -4966,10 +5234,10 @@
         <v>30</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R48" s="0" t="n">
         <v>40</v>
@@ -5004,13 +5272,13 @@
         <v>200</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>0.01</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H49" s="5" t="n">
         <v>0.46</v>
@@ -5034,10 +5302,10 @@
         <v>30</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5045,7 +5313,7 @@
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>6990</v>
@@ -5054,13 +5322,13 @@
         <v>200</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>0.0001</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>2.16</v>
@@ -5069,18 +5337,18 @@
         <v>1.02</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R51" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>6990</v>
@@ -5089,13 +5357,13 @@
         <v>200</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>0.001</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>0.81</v>
@@ -5104,18 +5372,18 @@
         <v>0.36</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R52" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>6990</v>
@@ -5124,13 +5392,13 @@
         <v>200</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>0.01</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H53" s="5" t="n">
         <v>0.3</v>
@@ -5139,13 +5407,13 @@
         <v>0.18</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R53" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5159,13 +5427,13 @@
         <v>200</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>0.0001</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>2.08</v>
@@ -5189,10 +5457,10 @@
         <v>0.87</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P55" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R55" s="0" t="n">
         <v>40</v>
@@ -5227,13 +5495,13 @@
         <v>200</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>0.001</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H56" s="5" t="n">
         <v>0.84</v>
@@ -5257,10 +5525,10 @@
         <v>0.87</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P56" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R56" s="0" t="n">
         <v>40</v>
@@ -5295,13 +5563,13 @@
         <v>200</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>0.01</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>0.93</v>
@@ -5318,17 +5586,17 @@
       <c r="L57" s="0" t="n">
         <v>0.318</v>
       </c>
-      <c r="M57" s="7" t="n">
+      <c r="M57" s="6" t="n">
         <v>2.3</v>
       </c>
       <c r="N57" s="0" t="n">
         <v>0.96</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P57" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R57" s="0" t="n">
         <v>40</v>
@@ -5360,7 +5628,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>2859</v>
@@ -5369,13 +5637,13 @@
         <v>200</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>0.0001</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>2.16</v>
@@ -5390,18 +5658,18 @@
         <v>0.86</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R59" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>2859</v>
@@ -5410,13 +5678,13 @@
         <v>200</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>0.001</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>2.07</v>
@@ -5431,18 +5699,18 @@
         <v>0.86</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R60" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>2859</v>
@@ -5451,13 +5719,13 @@
         <v>200</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>0.01</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H61" s="5" t="n">
         <v>0.35</v>
@@ -5472,13 +5740,13 @@
         <v>0.79</v>
       </c>
       <c r="O61" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R61" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5492,13 +5760,13 @@
         <v>200</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>0.0001</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H63" s="5" t="n">
         <v>1.43</v>
@@ -5522,10 +5790,10 @@
         <v>0.5</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R63" s="0" t="n">
         <v>40</v>
@@ -5560,13 +5828,13 @@
         <v>200</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>0.001</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G64" s="0" t="n">
         <v>0.36</v>
@@ -5593,10 +5861,10 @@
         <v>0.57</v>
       </c>
       <c r="O64" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5607,13 +5875,13 @@
         <v>200</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>0.01</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G65" s="0" t="n">
         <v>0.0005</v>
@@ -5640,10 +5908,10 @@
         <v>0.59</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T65" s="0" t="n">
         <v>150</v>
@@ -5669,7 +5937,7 @@
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>6990</v>
@@ -5678,13 +5946,13 @@
         <v>200</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>0.0001</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>2.17</v>
@@ -5699,18 +5967,18 @@
         <v>0.65</v>
       </c>
       <c r="O67" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R67" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>6990</v>
@@ -5719,13 +5987,13 @@
         <v>200</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>0.001</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>0.76</v>
@@ -5740,18 +6008,18 @@
         <v>0.37</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R68" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>6990</v>
@@ -5760,13 +6028,13 @@
         <v>200</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>0.01</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H69" s="5" t="n">
         <v>0.62</v>
@@ -5781,13 +6049,13 @@
         <v>0.43</v>
       </c>
       <c r="O69" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R69" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5795,7 +6063,7 @@
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>7951</v>
@@ -5804,13 +6072,13 @@
         <v>200</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>0.0001</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H71" s="0" t="n">
         <v>2.32</v>
@@ -5825,18 +6093,18 @@
         <v>0.31</v>
       </c>
       <c r="O71" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R71" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>7951</v>
@@ -5845,13 +6113,13 @@
         <v>200</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>0.001</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>1.45</v>
@@ -5866,18 +6134,18 @@
         <v>0.62</v>
       </c>
       <c r="O72" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R72" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>7951</v>
@@ -5886,13 +6154,13 @@
         <v>200</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>0.01</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H73" s="5" t="n">
         <v>0.3</v>
@@ -5907,13 +6175,13 @@
         <v>0.17</v>
       </c>
       <c r="O73" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R73" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5927,13 +6195,13 @@
         <v>200</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>0.0001</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G75" s="0" t="n">
         <v>3.18</v>
@@ -5960,10 +6228,10 @@
         <v>0.6</v>
       </c>
       <c r="O75" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R75" s="0" t="n">
         <v>40</v>
@@ -5998,13 +6266,13 @@
         <v>200</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>0.001</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G76" s="0" t="n">
         <v>0.15</v>
@@ -6031,10 +6299,10 @@
         <v>0.57</v>
       </c>
       <c r="O76" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R76" s="0" t="n">
         <v>40</v>
@@ -6051,13 +6319,13 @@
         <v>200</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>0.01</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G77" s="0" t="n">
         <v>0.002</v>
@@ -6084,10 +6352,10 @@
         <v>0.98</v>
       </c>
       <c r="O77" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R77" s="0" t="n">
         <v>40</v>
@@ -6112,6 +6380,612 @@
       </c>
       <c r="Y77" s="0" t="n">
         <v>100</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C79" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>-39</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="H79" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I79" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="J79" s="0" t="n">
+        <v>-43</v>
+      </c>
+      <c r="K79" s="0" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="L79" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M79" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="N79" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="O79" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="P79" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q79" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R79" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S79" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T79" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U79" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V79" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W79" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X79" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y79" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C80" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>-52</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I80" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J80" s="0" t="n">
+        <v>-52</v>
+      </c>
+      <c r="K80" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L80" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M80" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N80" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O80" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="P80" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q80" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R80" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S80" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T80" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U80" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V80" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W80" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X80" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y80" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C81" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>-25</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="H81" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I81" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J81" s="0" t="n">
+        <v>-25</v>
+      </c>
+      <c r="K81" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="L81" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="M81" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="N81" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O81" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="P81" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q81" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R81" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S81" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T81" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U81" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V81" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W81" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X81" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y81" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C82" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O82" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="P82" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q82" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R82" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B83" s="0" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O83" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="P83" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q83" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R83" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="0"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C88" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="O88" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="P88" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q88" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="R88" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S88" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T88" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U88" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V88" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W88" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X88" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y88" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C89" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O89" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="P89" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q89" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="R89" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S89" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T89" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U89" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V89" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W89" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X89" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y89" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C95" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="P95" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q95" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R95" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S95" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C96" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="P96" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q96" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R96" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S96" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C97" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="P97" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q97" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R97" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C98" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="P98" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q98" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R98" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C99" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="P99" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q99" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R99" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B100" s="0" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C100" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="P100" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q100" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R100" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B101" s="0" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C101" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="P101" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q101" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="R101" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C102" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="P102" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q102" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="R102" s="0" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -6130,31 +7004,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>174</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="n">
+        <v>43235</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/VRNN_theano_version/output/vrnn-dis1-dataport.xlsx
+++ b/VRNN_theano_version/output/vrnn-dis1-dataport.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="195">
   <si>
     <t xml:space="preserve">epochs</t>
   </si>
@@ -1902,13 +1902,28 @@
     <t xml:space="preserve">refrigerator1</t>
   </si>
   <si>
+    <t xml:space="preserve">18-05-20_23-51_app2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-20_23-52_app2</t>
+  </si>
+  <si>
     <t xml:space="preserve">clotheswasher1</t>
   </si>
   <si>
+    <t xml:space="preserve">num smaples too low</t>
+  </si>
+  <si>
     <t xml:space="preserve">drye1</t>
   </si>
   <si>
     <t xml:space="preserve">dishwasher1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kitchenapp1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">microwave1</t>
   </si>
   <si>
     <t xml:space="preserve">Dave's</t>
@@ -1934,7 +1949,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1962,6 +1977,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2018,7 +2038,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2044,6 +2064,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3012,10 +3036,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y102"/>
+  <dimension ref="A1:Y106"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E104" activeCellId="0" sqref="E104"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A75" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L97" activeCellId="0" sqref="L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6629,6 +6653,33 @@
       <c r="E82" s="0" t="n">
         <v>0.001</v>
       </c>
+      <c r="F82" s="0" t="n">
+        <v>-68</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J82" s="0" t="n">
+        <v>-68</v>
+      </c>
+      <c r="K82" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L82" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M82" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N82" s="0" t="n">
+        <v>0.09</v>
+      </c>
       <c r="O82" s="0" t="s">
         <v>176</v>
       </c>
@@ -6658,6 +6709,33 @@
       <c r="E83" s="0" t="n">
         <v>0.001</v>
       </c>
+      <c r="F83" s="0" t="n">
+        <v>-43</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H83" s="0" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I83" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="J83" s="0" t="n">
+        <v>-43</v>
+      </c>
+      <c r="K83" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="L83" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M83" s="0" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="N83" s="0" t="n">
+        <v>0.31</v>
+      </c>
       <c r="O83" s="0" t="s">
         <v>178</v>
       </c>
@@ -6690,6 +6768,27 @@
       <c r="E88" s="0" t="n">
         <v>0.0001</v>
       </c>
+      <c r="F88" s="0" t="n">
+        <v>-121</v>
+      </c>
+      <c r="G88" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H88" s="0" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I88" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J88" s="0" t="n">
+        <v>-441</v>
+      </c>
+      <c r="K88" s="0" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="L88" s="0" t="n">
+        <v>0.58</v>
+      </c>
       <c r="O88" s="0" t="s">
         <v>179</v>
       </c>
@@ -6740,6 +6839,27 @@
       <c r="E89" s="0" t="n">
         <v>0.001</v>
       </c>
+      <c r="F89" s="0" t="n">
+        <v>-399</v>
+      </c>
+      <c r="G89" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="H89" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I89" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J89" s="0" t="n">
+        <v>-399</v>
+      </c>
+      <c r="K89" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L89" s="0" t="n">
+        <v>0.13</v>
+      </c>
       <c r="O89" s="0" t="s">
         <v>180</v>
       </c>
@@ -6790,6 +6910,36 @@
       <c r="E95" s="0" t="n">
         <v>0.0001</v>
       </c>
+      <c r="F95" s="0" t="n">
+        <v>-46</v>
+      </c>
+      <c r="G95" s="0" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H95" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I95" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="J95" s="0" t="n">
+        <v>-46</v>
+      </c>
+      <c r="K95" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L95" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="M95" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="N95" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="O95" s="0" t="s">
+        <v>182</v>
+      </c>
       <c r="P95" s="0" t="s">
         <v>59</v>
       </c>
@@ -6819,6 +6969,36 @@
       <c r="E96" s="0" t="n">
         <v>0.001</v>
       </c>
+      <c r="F96" s="0" t="n">
+        <v>-53</v>
+      </c>
+      <c r="G96" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H96" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I96" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J96" s="0" t="n">
+        <v>-56</v>
+      </c>
+      <c r="K96" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="L96" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M96" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="N96" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O96" s="0" t="s">
+        <v>183</v>
+      </c>
       <c r="P96" s="0" t="s">
         <v>59</v>
       </c>
@@ -6843,10 +7023,13 @@
         <v>200</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>0.0001</v>
+      </c>
+      <c r="O97" s="0" t="s">
+        <v>185</v>
       </c>
       <c r="P97" s="0" t="s">
         <v>59</v>
@@ -6869,7 +7052,7 @@
         <v>200</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>0.001</v>
@@ -6895,10 +7078,13 @@
         <v>200</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>0.0001</v>
+      </c>
+      <c r="O99" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="P99" s="0" t="s">
         <v>59</v>
@@ -6921,7 +7107,7 @@
         <v>200</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>0.001</v>
@@ -6947,10 +7133,13 @@
         <v>200</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>0.0001</v>
+      </c>
+      <c r="O101" s="0" t="s">
+        <v>185</v>
       </c>
       <c r="P101" s="0" t="s">
         <v>59</v>
@@ -6973,7 +7162,7 @@
         <v>200</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>0.001</v>
@@ -6986,6 +7175,104 @@
       </c>
       <c r="R102" s="0" t="n">
         <v>80</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C103" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="O103" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="P103" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q103" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C104" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="P104" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q104" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C105" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="O105" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="P105" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q105" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C106" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="P106" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q106" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -7017,26 +7304,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="8" t="n">
         <v>43235</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/VRNN_theano_version/output/vrnn-dis1-dataport.xlsx
+++ b/VRNN_theano_version/output/vrnn-dis1-dataport.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="202">
   <si>
     <t xml:space="preserve">epochs</t>
   </si>
@@ -1908,22 +1908,43 @@
     <t xml:space="preserve">18-05-20_23-52_app2</t>
   </si>
   <si>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
     <t xml:space="preserve">clotheswasher1</t>
   </si>
   <si>
-    <t xml:space="preserve">num smaples too low</t>
+    <t xml:space="preserve">18-05-22_00-08_app3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-22_00-09_app3</t>
   </si>
   <si>
     <t xml:space="preserve">drye1</t>
   </si>
   <si>
+    <t xml:space="preserve">18-05-22_00-12_app4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-22_16-33_app4</t>
+  </si>
+  <si>
     <t xml:space="preserve">dishwasher1</t>
   </si>
   <si>
+    <t xml:space="preserve">18-05-22_16-38_app5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-22_16-39_app5</t>
+  </si>
+  <si>
     <t xml:space="preserve">kitchenapp1</t>
   </si>
   <si>
     <t xml:space="preserve">microwave1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0:lr, 100:(lr/10)}</t>
   </si>
   <si>
     <t xml:space="preserve">Dave's</t>
@@ -3036,10 +3057,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y106"/>
+  <dimension ref="A1:Y109"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A75" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L97" activeCellId="0" sqref="L97"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C77" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M103" activeCellId="0" sqref="M103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6789,6 +6810,12 @@
       <c r="L88" s="0" t="n">
         <v>0.58</v>
       </c>
+      <c r="M88" s="0" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="N88" s="0" t="n">
+        <v>0.63</v>
+      </c>
       <c r="O88" s="0" t="s">
         <v>179</v>
       </c>
@@ -6860,6 +6887,12 @@
       <c r="L89" s="0" t="n">
         <v>0.13</v>
       </c>
+      <c r="M89" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="N89" s="0" t="n">
+        <v>0.14</v>
+      </c>
       <c r="O89" s="0" t="s">
         <v>180</v>
       </c>
@@ -7016,20 +7049,47 @@
       <c r="A97" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B97" s="0" t="n">
-        <v>2859</v>
+      <c r="B97" s="0" t="s">
+        <v>184</v>
       </c>
       <c r="C97" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>0.0001</v>
       </c>
+      <c r="F97" s="0" t="n">
+        <v>-12</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H97" s="0" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I97" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J97" s="0" t="n">
+        <v>-46</v>
+      </c>
+      <c r="K97" s="0" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L97" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="M97" s="0" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="N97" s="0" t="n">
+        <v>0.71</v>
+      </c>
       <c r="O97" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P97" s="0" t="s">
         <v>59</v>
@@ -7045,17 +7105,47 @@
       <c r="A98" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B98" s="0" t="n">
-        <v>2859</v>
+      <c r="B98" s="0" t="s">
+        <v>184</v>
       </c>
       <c r="C98" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>0.001</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="G98" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H98" s="0" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I98" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J98" s="0" t="n">
+        <v>-58</v>
+      </c>
+      <c r="K98" s="0" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L98" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M98" s="0" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N98" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="O98" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="P98" s="0" t="s">
         <v>59</v>
@@ -7071,20 +7161,47 @@
       <c r="A99" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B99" s="0" t="n">
-        <v>2859</v>
+      <c r="B99" s="0" t="s">
+        <v>184</v>
       </c>
       <c r="C99" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>0.0001</v>
       </c>
+      <c r="F99" s="0" t="n">
+        <v>-47</v>
+      </c>
+      <c r="G99" s="0" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H99" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I99" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J99" s="0" t="n">
+        <v>-47</v>
+      </c>
+      <c r="K99" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="L99" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M99" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="N99" s="0" t="n">
+        <v>0.5</v>
+      </c>
       <c r="O99" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P99" s="0" t="s">
         <v>59</v>
@@ -7100,17 +7217,20 @@
       <c r="A100" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B100" s="0" t="n">
-        <v>2859</v>
+      <c r="B100" s="0" t="s">
+        <v>184</v>
       </c>
       <c r="C100" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>0.001</v>
+      </c>
+      <c r="O100" s="0" t="s">
+        <v>190</v>
       </c>
       <c r="P100" s="0" t="s">
         <v>59</v>
@@ -7126,20 +7246,20 @@
       <c r="A101" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B101" s="0" t="n">
-        <v>2859</v>
+      <c r="B101" s="0" t="s">
+        <v>184</v>
       </c>
       <c r="C101" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>0.0001</v>
       </c>
       <c r="O101" s="0" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="P101" s="0" t="s">
         <v>59</v>
@@ -7155,17 +7275,20 @@
       <c r="A102" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B102" s="0" t="n">
-        <v>2859</v>
+      <c r="B102" s="0" t="s">
+        <v>184</v>
       </c>
       <c r="C102" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>0.001</v>
+      </c>
+      <c r="O102" s="0" t="s">
+        <v>193</v>
       </c>
       <c r="P102" s="0" t="s">
         <v>59</v>
@@ -7181,20 +7304,17 @@
       <c r="A103" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B103" s="0" t="n">
-        <v>2859</v>
+      <c r="B103" s="0" t="s">
+        <v>184</v>
       </c>
       <c r="C103" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>0.0001</v>
-      </c>
-      <c r="O103" s="0" t="s">
-        <v>185</v>
       </c>
       <c r="P103" s="0" t="s">
         <v>59</v>
@@ -7207,14 +7327,14 @@
       <c r="A104" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B104" s="0" t="n">
-        <v>2859</v>
+      <c r="B104" s="0" t="s">
+        <v>184</v>
       </c>
       <c r="C104" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>0.001</v>
@@ -7230,20 +7350,17 @@
       <c r="A105" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B105" s="0" t="n">
-        <v>2859</v>
+      <c r="B105" s="0" t="s">
+        <v>184</v>
       </c>
       <c r="C105" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>0.0001</v>
-      </c>
-      <c r="O105" s="0" t="s">
-        <v>185</v>
       </c>
       <c r="P105" s="0" t="s">
         <v>59</v>
@@ -7256,14 +7373,14 @@
       <c r="A106" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B106" s="0" t="n">
-        <v>2859</v>
+      <c r="B106" s="0" t="s">
+        <v>184</v>
       </c>
       <c r="C106" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>0.001</v>
@@ -7273,6 +7390,58 @@
       </c>
       <c r="Q106" s="0" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C108" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="P108" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q108" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R108" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S108" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C109" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="P109" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q109" s="0" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -7304,18 +7473,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7323,7 +7492,7 @@
         <v>43235</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/VRNN_theano_version/output/vrnn-dis1-dataport.xlsx
+++ b/VRNN_theano_version/output/vrnn-dis1-dataport.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="206">
   <si>
     <t xml:space="preserve">epochs</t>
   </si>
@@ -1941,10 +1941,22 @@
     <t xml:space="preserve">kitchenapp1</t>
   </si>
   <si>
+    <t xml:space="preserve">18-05-22_17-53_app6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-22_18-04_app6</t>
+  </si>
+  <si>
     <t xml:space="preserve">microwave1</t>
   </si>
   <si>
+    <t xml:space="preserve">18-05-22_18-10_app7</t>
+  </si>
+  <si>
     <t xml:space="preserve">{0:lr, 100:(lr/10)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0:lr, 200:(lr/10)}</t>
   </si>
   <si>
     <t xml:space="preserve">Dave's</t>
@@ -3057,10 +3069,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y109"/>
+  <dimension ref="A1:Y111"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C77" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M103" activeCellId="0" sqref="M103"/>
+      <selection pane="topLeft" activeCell="J110" activeCellId="0" sqref="J110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -7229,6 +7241,33 @@
       <c r="E100" s="0" t="n">
         <v>0.001</v>
       </c>
+      <c r="F100" s="0" t="n">
+        <v>-16</v>
+      </c>
+      <c r="G100" s="0" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H100" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I100" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J100" s="0" t="n">
+        <v>-63</v>
+      </c>
+      <c r="K100" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="L100" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M100" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="N100" s="0" t="n">
+        <v>0.31</v>
+      </c>
       <c r="O100" s="0" t="s">
         <v>190</v>
       </c>
@@ -7258,6 +7297,33 @@
       <c r="E101" s="0" t="n">
         <v>0.0001</v>
       </c>
+      <c r="F101" s="0" t="n">
+        <v>-28</v>
+      </c>
+      <c r="G101" s="0" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H101" s="0" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I101" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="J101" s="0" t="n">
+        <v>-29</v>
+      </c>
+      <c r="K101" s="0" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="L101" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="M101" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N101" s="0" t="n">
+        <v>0.71</v>
+      </c>
       <c r="O101" s="0" t="s">
         <v>192</v>
       </c>
@@ -7287,6 +7353,33 @@
       <c r="E102" s="0" t="n">
         <v>0.001</v>
       </c>
+      <c r="F102" s="0" t="n">
+        <v>-70</v>
+      </c>
+      <c r="G102" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H102" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="I102" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J102" s="0" t="n">
+        <v>-70</v>
+      </c>
+      <c r="K102" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="L102" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M102" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="N102" s="0" t="n">
+        <v>0.44</v>
+      </c>
       <c r="O102" s="0" t="s">
         <v>193</v>
       </c>
@@ -7316,6 +7409,36 @@
       <c r="E103" s="0" t="n">
         <v>0.0001</v>
       </c>
+      <c r="F103" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H103" s="0" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I103" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J103" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="K103" s="0" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="L103" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="M103" s="0" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="N103" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O103" s="0" t="s">
+        <v>195</v>
+      </c>
       <c r="P103" s="0" t="s">
         <v>59</v>
       </c>
@@ -7339,6 +7462,36 @@
       <c r="E104" s="0" t="n">
         <v>0.001</v>
       </c>
+      <c r="F104" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H104" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I104" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J104" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K104" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L104" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="M104" s="0" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="N104" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="O104" s="0" t="s">
+        <v>196</v>
+      </c>
       <c r="P104" s="0" t="s">
         <v>59</v>
       </c>
@@ -7357,10 +7510,40 @@
         <v>200</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>0.0001</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H105" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I105" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J105" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="L105" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="M105" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="N105" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O105" s="0" t="s">
+        <v>198</v>
       </c>
       <c r="P105" s="0" t="s">
         <v>59</v>
@@ -7380,7 +7563,7 @@
         <v>200</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>0.001</v>
@@ -7438,10 +7621,44 @@
         <v>0.001</v>
       </c>
       <c r="P109" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q109" s="0" t="n">
         <v>80</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C110" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="P110" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q110" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="P111" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q111" s="0" t="n">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -7473,18 +7690,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7492,7 +7709,7 @@
         <v>43235</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/VRNN_theano_version/output/vrnn-dis1-dataport.xlsx
+++ b/VRNN_theano_version/output/vrnn-dis1-dataport.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="210">
   <si>
     <t xml:space="preserve">epochs</t>
   </si>
@@ -1953,7 +1953,19 @@
     <t xml:space="preserve">18-05-22_18-10_app7</t>
   </si>
   <si>
+    <t xml:space="preserve">18-05-23_12-07_app7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-23_12-13_app3</t>
+  </si>
+  <si>
     <t xml:space="preserve">{0:lr, 100:(lr/10)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-23_12-16_app4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-23_12-20_app6</t>
   </si>
   <si>
     <t xml:space="preserve">{0:lr, 200:(lr/10)}</t>
@@ -3069,10 +3081,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y111"/>
+  <dimension ref="A1:Y118"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C77" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J110" activeCellId="0" sqref="J110"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q119" activeCellId="0" sqref="Q119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -7568,40 +7580,41 @@
       <c r="E106" s="0" t="n">
         <v>0.001</v>
       </c>
+      <c r="F106" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" s="0" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H106" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I106" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="J106" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L106" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="M106" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="N106" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O106" s="0" t="s">
+        <v>199</v>
+      </c>
       <c r="P106" s="0" t="s">
         <v>59</v>
       </c>
       <c r="Q106" s="0" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B108" s="0" t="n">
-        <v>2859</v>
-      </c>
-      <c r="C108" s="4" t="n">
-        <v>250</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="E108" s="0" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="P108" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q108" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="R108" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="S108" s="0" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7620,14 +7633,50 @@
       <c r="E109" s="0" t="n">
         <v>0.001</v>
       </c>
+      <c r="F109" s="0" t="n">
+        <v>-110</v>
+      </c>
+      <c r="G109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" s="0" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I109" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J109" s="0" t="n">
+        <v>-120</v>
+      </c>
+      <c r="K109" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="L109" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M109" s="0" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="N109" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="O109" s="0" t="s">
+        <v>200</v>
+      </c>
       <c r="P109" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q109" s="0" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>184</v>
+      </c>
       <c r="C110" s="4" t="n">
         <v>250</v>
       </c>
@@ -7637,6 +7686,36 @@
       <c r="E110" s="0" t="n">
         <v>0.001</v>
       </c>
+      <c r="F110" s="0" t="n">
+        <v>-25</v>
+      </c>
+      <c r="G110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" s="0" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I110" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="J110" s="0" t="n">
+        <v>-64</v>
+      </c>
+      <c r="K110" s="0" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="L110" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="M110" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="N110" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="O110" s="0" t="s">
+        <v>202</v>
+      </c>
       <c r="P110" s="0" t="s">
         <v>59</v>
       </c>
@@ -7645,6 +7724,12 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>184</v>
+      </c>
       <c r="C111" s="4" t="n">
         <v>250</v>
       </c>
@@ -7654,11 +7739,179 @@
       <c r="E111" s="0" t="n">
         <v>0.001</v>
       </c>
+      <c r="F111" s="0" t="n">
+        <v>-85</v>
+      </c>
+      <c r="G111" s="0" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="H111" s="0" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I111" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J111" s="0" t="n">
+        <v>-85</v>
+      </c>
+      <c r="K111" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="L111" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M111" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N111" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="O111" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="P111" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q111" s="0" t="n">
         <v>60</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C113" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="P113" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q113" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C114" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="P114" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q114" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C115" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="P115" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q115" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C116" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="P116" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q116" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C117" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="P117" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q117" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C118" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="P118" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q118" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -7690,18 +7943,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7709,7 +7962,7 @@
         <v>43235</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/VRNN_theano_version/output/vrnn-dis1-dataport.xlsx
+++ b/VRNN_theano_version/output/vrnn-dis1-dataport.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="214">
   <si>
     <t xml:space="preserve">epochs</t>
   </si>
@@ -303,6 +303,9 @@
     <t xml:space="preserve">y2s_dim</t>
   </si>
   <si>
+    <t xml:space="preserve">kSchedSamp</t>
+  </si>
+  <si>
     <t xml:space="preserve">18-03-29_15-54_app0_2859</t>
   </si>
   <si>
@@ -1969,6 +1972,15 @@
   </si>
   <si>
     <t xml:space="preserve">{0:lr, 200:(lr/10)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-24_20-19_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-24_20-20_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-24_20-21_app1</t>
   </si>
   <si>
     <t xml:space="preserve">Dave's</t>
@@ -3081,10 +3093,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y118"/>
+  <dimension ref="A1:Z118"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q119" activeCellId="0" sqref="Q119"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F116" activeCellId="0" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3174,6 +3186,9 @@
       <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="Z1" s="0" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="n">
@@ -3214,7 +3229,7 @@
         <v>30</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -3240,7 +3255,7 @@
         <v>0.001</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0.52</v>
@@ -3249,10 +3264,10 @@
         <v>0.34</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3269,7 +3284,7 @@
         <v>0.01</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>0.46</v>
@@ -3278,10 +3293,10 @@
         <v>0.28</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3298,7 +3313,7 @@
         <v>0.0001</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0.75</v>
@@ -3307,10 +3322,10 @@
         <v>0.47</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3330,7 +3345,7 @@
         <v>0.0001</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0.85</v>
@@ -3354,10 +3369,10 @@
         <v>30</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R7" s="0" t="n">
         <v>40</v>
@@ -3398,7 +3413,7 @@
         <v>0.001</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0.67</v>
@@ -3422,10 +3437,10 @@
         <v>30</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T8" s="0" t="n">
         <v>80</v>
@@ -3460,7 +3475,7 @@
         <v>0.01</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H9" s="5" t="n">
         <v>0.55</v>
@@ -3484,10 +3499,10 @@
         <v>30</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T9" s="0" t="n">
         <v>80</v>
@@ -3525,7 +3540,7 @@
         <v>0.0001</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>6.28</v>
@@ -3552,10 +3567,10 @@
         <v>0.31</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T11" s="0" t="n">
         <v>150</v>
@@ -3590,7 +3605,7 @@
         <v>0.001</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>6.37</v>
@@ -3617,10 +3632,10 @@
         <v>0.29</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R12" s="0" t="n">
         <v>40</v>
@@ -3661,7 +3676,7 @@
         <v>0.01</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>3E-008</v>
@@ -3688,10 +3703,10 @@
         <v>0.45</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R13" s="0" t="n">
         <v>40</v>
@@ -3735,7 +3750,7 @@
         <v>0.0001</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>1.14</v>
@@ -3762,10 +3777,10 @@
         <v>0.23</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R15" s="0" t="n">
         <v>40</v>
@@ -3806,7 +3821,7 @@
         <v>0.001</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>0.24</v>
@@ -3833,10 +3848,10 @@
         <v>0.27</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R16" s="0" t="n">
         <v>40</v>
@@ -3877,7 +3892,7 @@
         <v>0.01</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>2E-007</v>
@@ -3904,10 +3919,10 @@
         <v>0.18</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R17" s="0" t="n">
         <v>40</v>
@@ -3951,7 +3966,7 @@
         <v>0.0001</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>0.57</v>
@@ -3978,10 +3993,10 @@
         <v>0.38</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R19" s="0" t="n">
         <v>40</v>
@@ -4049,10 +4064,10 @@
         <v>0.37</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R20" s="0" t="n">
         <v>40</v>
@@ -4120,10 +4135,10 @@
         <v>0.37</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R21" s="0" t="n">
         <v>40</v>
@@ -4149,7 +4164,7 @@
         <v>0.001</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>1.47</v>
@@ -4173,10 +4188,10 @@
         <v>30</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R23" s="0" t="n">
         <v>40</v>
@@ -4217,7 +4232,7 @@
         <v>0.01</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>2.53</v>
@@ -4241,10 +4256,10 @@
         <v>30</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R24" s="0" t="n">
         <v>40</v>
@@ -4285,29 +4300,29 @@
         <v>0.1</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4327,7 +4342,7 @@
         <v>0.0001</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>3.03</v>
@@ -4351,10 +4366,10 @@
         <v>30</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R27" s="0" t="n">
         <v>40</v>
@@ -4395,7 +4410,7 @@
         <v>0.001</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H28" s="5" t="n">
         <v>0.86</v>
@@ -4404,10 +4419,10 @@
         <v>0.36</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4424,7 +4439,7 @@
         <v>0.01</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>2.46</v>
@@ -4433,10 +4448,10 @@
         <v>0.77</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4483,10 +4498,10 @@
         <v>0.19</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R31" s="0" t="n">
         <v>40</v>
@@ -4554,10 +4569,10 @@
         <v>0.35</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T32" s="0" t="n">
         <v>150</v>
@@ -4592,7 +4607,7 @@
         <v>0.0001</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>1.09</v>
@@ -4619,10 +4634,10 @@
         <v>0.32</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R33" s="0" t="n">
         <v>40</v>
@@ -4663,7 +4678,7 @@
         <v>0.001</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>0.67</v>
@@ -4687,10 +4702,10 @@
         <v>0.15</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R34" s="0" t="n">
         <v>40</v>
@@ -4731,7 +4746,7 @@
         <v>0.01</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H35" s="5" t="n">
         <v>0.49</v>
@@ -4755,10 +4770,10 @@
         <v>0.1</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R35" s="0" t="n">
         <v>40</v>
@@ -4829,10 +4844,10 @@
         <v>0.29</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R37" s="0" t="n">
         <v>40</v>
@@ -4873,7 +4888,7 @@
         <v>0.0001</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>1.26</v>
@@ -4900,10 +4915,10 @@
         <v>0.29</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R38" s="0" t="n">
         <v>40</v>
@@ -4944,7 +4959,7 @@
         <v>0.001</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H39" s="5" t="n">
         <v>0.11</v>
@@ -4968,10 +4983,10 @@
         <v>0.58</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R39" s="0" t="n">
         <v>40</v>
@@ -5012,7 +5027,7 @@
         <v>0.01</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>0.17</v>
@@ -5036,10 +5051,10 @@
         <v>0.61</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5086,10 +5101,10 @@
         <v>0.52</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R42" s="0" t="n">
         <v>40</v>
@@ -5118,7 +5133,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>3413</v>
@@ -5133,18 +5148,18 @@
         <v>0.0001</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R43" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>3413</v>
@@ -5159,18 +5174,18 @@
         <v>0.001</v>
       </c>
       <c r="O44" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="P44" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="R44" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="P44" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="R44" s="0" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>3413</v>
@@ -5185,13 +5200,13 @@
         <v>0.01</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R45" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5205,13 +5220,13 @@
         <v>200</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>0.0001</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>2.11</v>
@@ -5235,10 +5250,10 @@
         <v>30</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R47" s="0" t="n">
         <v>40</v>
@@ -5273,13 +5288,13 @@
         <v>200</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>0.001</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>0.8</v>
@@ -5303,10 +5318,10 @@
         <v>30</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R48" s="0" t="n">
         <v>40</v>
@@ -5341,13 +5356,13 @@
         <v>200</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>0.01</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H49" s="5" t="n">
         <v>0.46</v>
@@ -5371,10 +5386,10 @@
         <v>30</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5382,7 +5397,7 @@
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>6990</v>
@@ -5391,13 +5406,13 @@
         <v>200</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>0.0001</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>2.16</v>
@@ -5406,18 +5421,18 @@
         <v>1.02</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R51" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>6990</v>
@@ -5426,13 +5441,13 @@
         <v>200</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>0.001</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>0.81</v>
@@ -5441,18 +5456,18 @@
         <v>0.36</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R52" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>6990</v>
@@ -5461,13 +5476,13 @@
         <v>200</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>0.01</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H53" s="5" t="n">
         <v>0.3</v>
@@ -5476,13 +5491,13 @@
         <v>0.18</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R53" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5496,13 +5511,13 @@
         <v>200</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>0.0001</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>2.08</v>
@@ -5526,10 +5541,10 @@
         <v>0.87</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P55" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R55" s="0" t="n">
         <v>40</v>
@@ -5564,13 +5579,13 @@
         <v>200</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>0.001</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H56" s="5" t="n">
         <v>0.84</v>
@@ -5594,10 +5609,10 @@
         <v>0.87</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P56" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R56" s="0" t="n">
         <v>40</v>
@@ -5632,13 +5647,13 @@
         <v>200</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>0.01</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>0.93</v>
@@ -5662,10 +5677,10 @@
         <v>0.96</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P57" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R57" s="0" t="n">
         <v>40</v>
@@ -5697,7 +5712,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>2859</v>
@@ -5706,13 +5721,13 @@
         <v>200</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>0.0001</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>2.16</v>
@@ -5727,18 +5742,18 @@
         <v>0.86</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R59" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>2859</v>
@@ -5747,13 +5762,13 @@
         <v>200</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>0.001</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>2.07</v>
@@ -5768,18 +5783,18 @@
         <v>0.86</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R60" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>2859</v>
@@ -5788,13 +5803,13 @@
         <v>200</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>0.01</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H61" s="5" t="n">
         <v>0.35</v>
@@ -5809,13 +5824,13 @@
         <v>0.79</v>
       </c>
       <c r="O61" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R61" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5829,13 +5844,13 @@
         <v>200</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>0.0001</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H63" s="5" t="n">
         <v>1.43</v>
@@ -5859,10 +5874,10 @@
         <v>0.5</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R63" s="0" t="n">
         <v>40</v>
@@ -5897,13 +5912,13 @@
         <v>200</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>0.001</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G64" s="0" t="n">
         <v>0.36</v>
@@ -5930,10 +5945,10 @@
         <v>0.57</v>
       </c>
       <c r="O64" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5944,13 +5959,13 @@
         <v>200</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>0.01</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G65" s="0" t="n">
         <v>0.0005</v>
@@ -5977,10 +5992,10 @@
         <v>0.59</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T65" s="0" t="n">
         <v>150</v>
@@ -6006,7 +6021,7 @@
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>6990</v>
@@ -6015,13 +6030,13 @@
         <v>200</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>0.0001</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>2.17</v>
@@ -6036,18 +6051,18 @@
         <v>0.65</v>
       </c>
       <c r="O67" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R67" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>6990</v>
@@ -6056,13 +6071,13 @@
         <v>200</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>0.001</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>0.76</v>
@@ -6077,18 +6092,18 @@
         <v>0.37</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R68" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>6990</v>
@@ -6097,13 +6112,13 @@
         <v>200</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>0.01</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H69" s="5" t="n">
         <v>0.62</v>
@@ -6118,13 +6133,13 @@
         <v>0.43</v>
       </c>
       <c r="O69" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R69" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6132,7 +6147,7 @@
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>7951</v>
@@ -6141,13 +6156,13 @@
         <v>200</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>0.0001</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H71" s="0" t="n">
         <v>2.32</v>
@@ -6162,18 +6177,18 @@
         <v>0.31</v>
       </c>
       <c r="O71" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R71" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>7951</v>
@@ -6182,13 +6197,13 @@
         <v>200</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>0.001</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>1.45</v>
@@ -6203,18 +6218,18 @@
         <v>0.62</v>
       </c>
       <c r="O72" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R72" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>7951</v>
@@ -6223,13 +6238,13 @@
         <v>200</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>0.01</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H73" s="5" t="n">
         <v>0.3</v>
@@ -6244,13 +6259,13 @@
         <v>0.17</v>
       </c>
       <c r="O73" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R73" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6264,13 +6279,13 @@
         <v>200</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>0.0001</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G75" s="0" t="n">
         <v>3.18</v>
@@ -6297,10 +6312,10 @@
         <v>0.6</v>
       </c>
       <c r="O75" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R75" s="0" t="n">
         <v>40</v>
@@ -6335,13 +6350,13 @@
         <v>200</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>0.001</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G76" s="0" t="n">
         <v>0.15</v>
@@ -6368,10 +6383,10 @@
         <v>0.57</v>
       </c>
       <c r="O76" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R76" s="0" t="n">
         <v>40</v>
@@ -6388,13 +6403,13 @@
         <v>200</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>0.01</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G77" s="0" t="n">
         <v>0.002</v>
@@ -6421,10 +6436,10 @@
         <v>0.98</v>
       </c>
       <c r="O77" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R77" s="0" t="n">
         <v>40</v>
@@ -6453,7 +6468,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>2859</v>
@@ -6495,10 +6510,10 @@
         <v>0.36</v>
       </c>
       <c r="O79" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P79" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q79" s="0" t="n">
         <v>20</v>
@@ -6530,7 +6545,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>2859</v>
@@ -6572,10 +6587,10 @@
         <v>0.08</v>
       </c>
       <c r="O80" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P80" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q80" s="0" t="n">
         <v>20</v>
@@ -6607,7 +6622,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>2859</v>
@@ -6649,10 +6664,10 @@
         <v>0.38</v>
       </c>
       <c r="O81" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P81" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q81" s="0" t="n">
         <v>20</v>
@@ -6684,7 +6699,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>2859</v>
@@ -6726,10 +6741,10 @@
         <v>0.09</v>
       </c>
       <c r="O82" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P82" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q82" s="0" t="n">
         <v>20</v>
@@ -6740,7 +6755,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>2859</v>
@@ -6782,10 +6797,10 @@
         <v>0.31</v>
       </c>
       <c r="O83" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P83" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q83" s="0" t="n">
         <v>20</v>
@@ -6799,7 +6814,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>2859</v>
@@ -6841,10 +6856,10 @@
         <v>0.63</v>
       </c>
       <c r="O88" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P88" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q88" s="0" t="n">
         <v>120</v>
@@ -6876,7 +6891,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>2859</v>
@@ -6918,10 +6933,10 @@
         <v>0.14</v>
       </c>
       <c r="O89" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P89" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q89" s="0" t="n">
         <v>120</v>
@@ -6953,7 +6968,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>2859</v>
@@ -6962,7 +6977,7 @@
         <v>200</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>0.0001</v>
@@ -6995,10 +7010,10 @@
         <v>0.34</v>
       </c>
       <c r="O95" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P95" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q95" s="0" t="n">
         <v>30</v>
@@ -7009,10 +7024,13 @@
       <c r="S95" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="Z95" s="0" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>2859</v>
@@ -7021,7 +7039,7 @@
         <v>200</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>0.001</v>
@@ -7054,10 +7072,10 @@
         <v>0.37</v>
       </c>
       <c r="O96" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P96" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q96" s="0" t="n">
         <v>30</v>
@@ -7068,19 +7086,22 @@
       <c r="S96" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="Z96" s="0" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C97" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>0.0001</v>
@@ -7113,10 +7134,10 @@
         <v>0.71</v>
       </c>
       <c r="O97" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P97" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q97" s="0" t="n">
         <v>80</v>
@@ -7124,19 +7145,22 @@
       <c r="R97" s="0" t="n">
         <v>80</v>
       </c>
+      <c r="Z97" s="0" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C98" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>0.001</v>
@@ -7169,10 +7193,10 @@
         <v>0.52</v>
       </c>
       <c r="O98" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P98" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q98" s="0" t="n">
         <v>80</v>
@@ -7180,19 +7204,22 @@
       <c r="R98" s="0" t="n">
         <v>80</v>
       </c>
+      <c r="Z98" s="0" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C99" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>0.0001</v>
@@ -7225,10 +7252,10 @@
         <v>0.5</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P99" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q99" s="0" t="n">
         <v>80</v>
@@ -7236,19 +7263,22 @@
       <c r="R99" s="0" t="n">
         <v>80</v>
       </c>
+      <c r="Z99" s="0" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C100" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>0.001</v>
@@ -7281,10 +7311,10 @@
         <v>0.31</v>
       </c>
       <c r="O100" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P100" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q100" s="0" t="n">
         <v>80</v>
@@ -7292,19 +7322,22 @@
       <c r="R100" s="0" t="n">
         <v>80</v>
       </c>
+      <c r="Z100" s="0" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C101" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>0.0001</v>
@@ -7337,10 +7370,10 @@
         <v>0.71</v>
       </c>
       <c r="O101" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P101" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q101" s="0" t="n">
         <v>130</v>
@@ -7348,19 +7381,22 @@
       <c r="R101" s="0" t="n">
         <v>80</v>
       </c>
+      <c r="Z101" s="0" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C102" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>0.001</v>
@@ -7393,10 +7429,10 @@
         <v>0.44</v>
       </c>
       <c r="O102" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P102" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q102" s="0" t="n">
         <v>130</v>
@@ -7404,19 +7440,22 @@
       <c r="R102" s="0" t="n">
         <v>80</v>
       </c>
+      <c r="Z102" s="0" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C103" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>0.0001</v>
@@ -7449,27 +7488,30 @@
         <v>0.9</v>
       </c>
       <c r="O103" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P103" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q103" s="0" t="n">
         <v>60</v>
       </c>
+      <c r="Z103" s="0" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C104" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>0.001</v>
@@ -7502,27 +7544,30 @@
         <v>0.68</v>
       </c>
       <c r="O104" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P104" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q104" s="0" t="n">
         <v>60</v>
       </c>
+      <c r="Z104" s="0" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C105" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>0.0001</v>
@@ -7555,27 +7600,30 @@
         <v>0.58</v>
       </c>
       <c r="O105" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P105" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q105" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="Z105" s="0" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C106" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>0.001</v>
@@ -7608,27 +7656,30 @@
         <v>0.57</v>
       </c>
       <c r="O106" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P106" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q106" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="Z106" s="0" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C109" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>0.001</v>
@@ -7661,10 +7712,10 @@
         <v>0.62</v>
       </c>
       <c r="O109" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P109" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q109" s="0" t="n">
         <v>80</v>
@@ -7672,16 +7723,16 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C110" s="4" t="n">
         <v>250</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>0.001</v>
@@ -7714,10 +7765,10 @@
         <v>0.35</v>
       </c>
       <c r="O110" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P110" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q110" s="0" t="n">
         <v>30</v>
@@ -7725,16 +7776,16 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C111" s="4" t="n">
         <v>250</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>0.001</v>
@@ -7767,10 +7818,10 @@
         <v>0.61</v>
       </c>
       <c r="O111" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P111" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q111" s="0" t="n">
         <v>60</v>
@@ -7778,10 +7829,10 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C113" s="4" t="n">
         <v>200</v>
@@ -7792,19 +7843,52 @@
       <c r="E113" s="0" t="n">
         <v>0.0001</v>
       </c>
+      <c r="F113" s="0" t="n">
+        <v>-14</v>
+      </c>
+      <c r="G113" s="0" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H113" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I113" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J113" s="0" t="n">
+        <v>-14</v>
+      </c>
+      <c r="K113" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L113" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M113" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N113" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="O113" s="0" t="s">
+        <v>206</v>
+      </c>
       <c r="P113" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q113" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="Z113" s="0" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C114" s="4" t="n">
         <v>200</v>
@@ -7815,19 +7899,52 @@
       <c r="E114" s="0" t="n">
         <v>0.001</v>
       </c>
+      <c r="F114" s="0" t="n">
+        <v>-15</v>
+      </c>
+      <c r="G114" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H114" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I114" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J114" s="0" t="n">
+        <v>-15</v>
+      </c>
+      <c r="K114" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L114" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M114" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N114" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="O114" s="0" t="s">
+        <v>207</v>
+      </c>
       <c r="P114" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q114" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="Z114" s="0" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C115" s="4" t="n">
         <v>200</v>
@@ -7838,19 +7955,52 @@
       <c r="E115" s="0" t="n">
         <v>0.0001</v>
       </c>
+      <c r="F115" s="0" t="n">
+        <v>-12</v>
+      </c>
+      <c r="G115" s="0" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H115" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I115" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="J115" s="0" t="n">
+        <v>-20</v>
+      </c>
+      <c r="K115" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="L115" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="M115" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="N115" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="O115" s="0" t="s">
+        <v>208</v>
+      </c>
       <c r="P115" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q115" s="0" t="n">
         <v>120</v>
       </c>
+      <c r="Z115" s="0" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C116" s="4" t="n">
         <v>200</v>
@@ -7862,55 +8012,64 @@
         <v>0.001</v>
       </c>
       <c r="P116" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q116" s="0" t="n">
         <v>120</v>
       </c>
+      <c r="Z116" s="0" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C117" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E117" s="0" t="n">
         <v>0.0001</v>
       </c>
       <c r="P117" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q117" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="Z117" s="0" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C118" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>0.001</v>
       </c>
       <c r="P118" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q118" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z118" s="0" t="n">
         <v>30</v>
       </c>
     </row>
@@ -7943,18 +8102,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7962,7 +8121,7 @@
         <v>43235</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/VRNN_theano_version/output/vrnn-dis1-dataport.xlsx
+++ b/VRNN_theano_version/output/vrnn-dis1-dataport.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="217">
   <si>
     <t xml:space="preserve">epochs</t>
   </si>
@@ -1981,6 +1981,15 @@
   </si>
   <si>
     <t xml:space="preserve">18-05-24_20-21_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-25_16-14_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-25_16-16_app2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-26_21-15_app2</t>
   </si>
   <si>
     <t xml:space="preserve">Dave's</t>
@@ -3096,7 +3105,7 @@
   <dimension ref="A1:Z118"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F116" activeCellId="0" sqref="F116"/>
+      <selection pane="topLeft" activeCell="N119" activeCellId="0" sqref="N119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8011,6 +8020,36 @@
       <c r="E116" s="0" t="n">
         <v>0.001</v>
       </c>
+      <c r="F116" s="0" t="n">
+        <v>-93</v>
+      </c>
+      <c r="G116" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I116" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J116" s="0" t="n">
+        <v>-104</v>
+      </c>
+      <c r="K116" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="L116" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M116" s="0" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="N116" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="O116" s="0" t="s">
+        <v>209</v>
+      </c>
       <c r="P116" s="0" t="s">
         <v>60</v>
       </c>
@@ -8037,6 +8076,36 @@
       <c r="E117" s="0" t="n">
         <v>0.0001</v>
       </c>
+      <c r="F117" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G117" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H117" s="0" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I117" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J117" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="K117" s="0" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L117" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="M117" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N117" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="O117" s="0" t="s">
+        <v>210</v>
+      </c>
       <c r="P117" s="0" t="s">
         <v>60</v>
       </c>
@@ -8062,6 +8131,9 @@
       </c>
       <c r="E118" s="0" t="n">
         <v>0.001</v>
+      </c>
+      <c r="O118" s="0" t="s">
+        <v>211</v>
       </c>
       <c r="P118" s="0" t="s">
         <v>60</v>
@@ -8102,18 +8174,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8121,7 +8193,7 @@
         <v>43235</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/VRNN_theano_version/output/vrnn-dis1-dataport.xlsx
+++ b/VRNN_theano_version/output/vrnn-dis1-dataport.xlsx
@@ -3104,8 +3104,8 @@
   </sheetPr>
   <dimension ref="A1:Z118"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N119" activeCellId="0" sqref="N119"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A86" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L119" activeCellId="0" sqref="L119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8131,6 +8131,33 @@
       </c>
       <c r="E118" s="0" t="n">
         <v>0.001</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G118" s="0" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="H118" s="0" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I118" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J118" s="0" t="n">
+        <v>-9</v>
+      </c>
+      <c r="K118" s="0" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L118" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="M118" s="0" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N118" s="0" t="n">
+        <v>0.58</v>
       </c>
       <c r="O118" s="0" t="s">
         <v>211</v>

--- a/VRNN_theano_version/output/vrnn-dis1-dataport.xlsx
+++ b/VRNN_theano_version/output/vrnn-dis1-dataport.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="222">
   <si>
     <t xml:space="preserve">epochs</t>
   </si>
@@ -1990,6 +1990,21 @@
   </si>
   <si>
     <t xml:space="preserve">18-05-26_21-15_app2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-29_00-45_app2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0:lr, 150:(lr/10)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-27_19-27_app2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-27_19-28_app2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-29_00-48_app6</t>
   </si>
   <si>
     <t xml:space="preserve">Dave's</t>
@@ -3102,10 +3117,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z118"/>
+  <dimension ref="A1:Z123"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A86" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L119" activeCellId="0" sqref="L119"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N123" activeCellId="0" sqref="N123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8170,6 +8185,230 @@
       </c>
       <c r="Z118" s="0" t="n">
         <v>30</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C119" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>-17</v>
+      </c>
+      <c r="G119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" s="0" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I119" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J119" s="0" t="n">
+        <v>-18</v>
+      </c>
+      <c r="K119" s="0" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="L119" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="M119" s="0" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="N119" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O119" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="P119" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q119" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R119" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S119" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C120" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="G120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" s="0" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I120" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J120" s="0" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K120" s="0" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="L120" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="M120" s="0" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="N120" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="O120" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="P120" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q120" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C121" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F121" s="0" t="n">
+        <v>-15</v>
+      </c>
+      <c r="G121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" s="0" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I121" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J121" s="0" t="n">
+        <v>-16</v>
+      </c>
+      <c r="K121" s="0" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="L121" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="M121" s="0" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="N121" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O121" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="P121" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q121" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C123" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>-33</v>
+      </c>
+      <c r="G123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" s="0" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I123" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="J123" s="0" t="n">
+        <v>-33</v>
+      </c>
+      <c r="K123" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L123" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="M123" s="0" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="N123" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="O123" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="P123" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q123" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="R123" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="S123" s="0" t="n">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -8201,18 +8440,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8220,7 +8459,7 @@
         <v>43235</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/VRNN_theano_version/output/vrnn-dis1-dataport.xlsx
+++ b/VRNN_theano_version/output/vrnn-dis1-dataport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all-builds" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="222">
   <si>
     <t xml:space="preserve">epochs</t>
   </si>
@@ -3119,8 +3119,8 @@
   </sheetPr>
   <dimension ref="A1:Z123"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N123" activeCellId="0" sqref="N123"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G69" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z126" activeCellId="0" sqref="Z126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -7048,6 +7048,24 @@
       <c r="S95" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="T95" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U95" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V95" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W95" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X95" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y95" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="Z95" s="0" t="s">
         <v>115</v>
       </c>
@@ -7110,6 +7128,24 @@
       <c r="S96" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="T96" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U96" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V96" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W96" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X96" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y96" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="Z96" s="0" t="s">
         <v>115</v>
       </c>
@@ -7169,6 +7205,27 @@
       <c r="R97" s="0" t="n">
         <v>80</v>
       </c>
+      <c r="S97" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T97" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U97" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V97" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W97" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X97" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y97" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="Z97" s="0" t="s">
         <v>115</v>
       </c>
@@ -7228,6 +7285,27 @@
       <c r="R98" s="0" t="n">
         <v>80</v>
       </c>
+      <c r="S98" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T98" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U98" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V98" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W98" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X98" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y98" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="Z98" s="0" t="s">
         <v>115</v>
       </c>
@@ -7287,6 +7365,27 @@
       <c r="R99" s="0" t="n">
         <v>80</v>
       </c>
+      <c r="S99" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T99" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U99" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V99" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W99" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X99" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y99" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="Z99" s="0" t="s">
         <v>115</v>
       </c>
@@ -7346,6 +7445,27 @@
       <c r="R100" s="0" t="n">
         <v>80</v>
       </c>
+      <c r="S100" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T100" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U100" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V100" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W100" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X100" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="Z100" s="0" t="s">
         <v>115</v>
       </c>
@@ -7405,6 +7525,27 @@
       <c r="R101" s="0" t="n">
         <v>80</v>
       </c>
+      <c r="S101" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T101" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U101" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V101" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W101" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X101" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y101" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="Z101" s="0" t="s">
         <v>115</v>
       </c>
@@ -7464,6 +7605,27 @@
       <c r="R102" s="0" t="n">
         <v>80</v>
       </c>
+      <c r="S102" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T102" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U102" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V102" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W102" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X102" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y102" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="Z102" s="0" t="s">
         <v>115</v>
       </c>
@@ -7520,6 +7682,30 @@
       <c r="Q103" s="0" t="n">
         <v>60</v>
       </c>
+      <c r="R103" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S103" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T103" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U103" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V103" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W103" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X103" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y103" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="Z103" s="0" t="s">
         <v>115</v>
       </c>
@@ -7576,6 +7762,30 @@
       <c r="Q104" s="0" t="n">
         <v>60</v>
       </c>
+      <c r="R104" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S104" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T104" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U104" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V104" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W104" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X104" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y104" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="Z104" s="0" t="s">
         <v>115</v>
       </c>
@@ -7632,6 +7842,30 @@
       <c r="Q105" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="R105" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S105" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T105" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U105" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V105" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W105" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X105" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y105" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="Z105" s="0" t="s">
         <v>115</v>
       </c>
@@ -7688,6 +7922,30 @@
       <c r="Q106" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="R106" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S106" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T106" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U106" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V106" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W106" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X106" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y106" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="Z106" s="0" t="s">
         <v>115</v>
       </c>
@@ -7744,6 +8002,33 @@
       <c r="Q109" s="0" t="n">
         <v>80</v>
       </c>
+      <c r="R109" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S109" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T109" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U109" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V109" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W109" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X109" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y109" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z109" s="0" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
@@ -7797,6 +8082,33 @@
       <c r="Q110" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="R110" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S110" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T110" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U110" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V110" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W110" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X110" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y110" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z110" s="0" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
@@ -7850,6 +8162,33 @@
       <c r="Q111" s="0" t="n">
         <v>60</v>
       </c>
+      <c r="R111" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S111" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T111" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U111" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V111" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W111" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X111" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y111" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z111" s="0" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
@@ -7903,6 +8242,30 @@
       <c r="Q113" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="R113" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S113" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T113" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U113" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V113" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W113" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X113" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y113" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="Z113" s="0" t="n">
         <v>30</v>
       </c>
@@ -7959,6 +8322,30 @@
       <c r="Q114" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="R114" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S114" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T114" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U114" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V114" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W114" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X114" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y114" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="Z114" s="0" t="n">
         <v>30</v>
       </c>
@@ -8015,6 +8402,30 @@
       <c r="Q115" s="0" t="n">
         <v>120</v>
       </c>
+      <c r="R115" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S115" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T115" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U115" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V115" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W115" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X115" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y115" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="Z115" s="0" t="n">
         <v>30</v>
       </c>
@@ -8071,6 +8482,30 @@
       <c r="Q116" s="0" t="n">
         <v>120</v>
       </c>
+      <c r="R116" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S116" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T116" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U116" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V116" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W116" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X116" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y116" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="Z116" s="0" t="n">
         <v>30</v>
       </c>
@@ -8127,6 +8562,30 @@
       <c r="Q117" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="R117" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S117" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T117" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U117" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V117" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W117" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X117" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y117" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="Z117" s="0" t="n">
         <v>30</v>
       </c>
@@ -8183,6 +8642,30 @@
       <c r="Q118" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="R118" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S118" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T118" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U118" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V118" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W118" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X118" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y118" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="Z118" s="0" t="n">
         <v>30</v>
       </c>
@@ -8245,6 +8728,27 @@
       <c r="S119" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="T119" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U119" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V119" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W119" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X119" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y119" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z119" s="0" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
@@ -8298,6 +8802,33 @@
       <c r="Q120" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="R120" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S120" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T120" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U120" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V120" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W120" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X120" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y120" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z120" s="0" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
@@ -8351,6 +8882,33 @@
       <c r="Q121" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="R121" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S121" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T121" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U121" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V121" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W121" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X121" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y121" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z121" s="0" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
@@ -8409,6 +8967,27 @@
       </c>
       <c r="S123" s="0" t="n">
         <v>150</v>
+      </c>
+      <c r="T123" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U123" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V123" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W123" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X123" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y123" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z123" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/VRNN_theano_version/output/vrnn-dis1-dataport.xlsx
+++ b/VRNN_theano_version/output/vrnn-dis1-dataport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="228" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all-builds" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,150 +13,139 @@
     <sheet name="notes" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="222">
-  <si>
-    <t xml:space="preserve">epochs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log-likelihood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">best log-likelihood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best MSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best MAE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test MSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test MAE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR changes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z_dim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rnn_dim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q_z_dim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_z_dim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_x_dim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x2s_dim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z2s_dim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-03-22_19-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">const</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-03-22_20-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-03-23_11-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0:0.0001, 100:0.00001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-03-23_11-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-03-24_11-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-03-27_10-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-03-28_14-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-furnace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-13_11-58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0:0.0001, 75:0.00001, 150:0.000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-dishwasher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-03-22_17-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-03-23_17-36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-03-24_10-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-03-25_20-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-03-26_11-25</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="306">
+  <si>
+    <t>epochs</t>
+  </si>
+  <si>
+    <t>appliance</t>
+  </si>
+  <si>
+    <t>Initial LR</t>
+  </si>
+  <si>
+    <t>Log-likelihood</t>
+  </si>
+  <si>
+    <t>KL</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>best log-likelihood</t>
+  </si>
+  <si>
+    <t>Best MSE</t>
+  </si>
+  <si>
+    <t>Best MAE</t>
+  </si>
+  <si>
+    <t>Test MSE</t>
+  </si>
+  <si>
+    <t>Test MAE</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>LR changes</t>
+  </si>
+  <si>
+    <t>buildings</t>
+  </si>
+  <si>
+    <t>z_dim</t>
+  </si>
+  <si>
+    <t>rnn_dim</t>
+  </si>
+  <si>
+    <t>q_z_dim</t>
+  </si>
+  <si>
+    <t>p_z_dim</t>
+  </si>
+  <si>
+    <t>p_x_dim</t>
+  </si>
+  <si>
+    <t>x2s_dim</t>
+  </si>
+  <si>
+    <t>z2s_dim</t>
+  </si>
+  <si>
+    <t>0-air</t>
+  </si>
+  <si>
+    <t>18-03-22_19-08</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t>18-03-22_20-06</t>
+  </si>
+  <si>
+    <t>18-03-23_11-25</t>
+  </si>
+  <si>
+    <t>0:0.0001, 100:0.00001</t>
+  </si>
+  <si>
+    <t>18-03-23_11-32</t>
+  </si>
+  <si>
+    <t>18-03-24_11-02</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>18-03-27_10-03</t>
+  </si>
+  <si>
+    <t>18-03-28_14-13</t>
+  </si>
+  <si>
+    <t>1-furnace</t>
+  </si>
+  <si>
+    <t>18-05-13_11-58</t>
+  </si>
+  <si>
+    <t>0:0.0001, 75:0.00001, 150:0.000001</t>
+  </si>
+  <si>
+    <t>5-dishwasher</t>
+  </si>
+  <si>
+    <t>18-03-22_17-12</t>
+  </si>
+  <si>
+    <t>18-03-23_17-36</t>
+  </si>
+  <si>
+    <t>18-03-24_10-28</t>
+  </si>
+  <si>
+    <t>18-03-25_20-20</t>
+  </si>
+  <si>
+    <t>18-03-26_11-25</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-96</t>
     </r>
     <r>
@@ -190,19 +179,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-04-13_13-47_app5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0:lr, 75:(lr/10), 150:(lr/100)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-04-13_13-47_app5</t>
+  </si>
+  <si>
+    <t>0:lr, 75:(lr/10), 150:(lr/100)</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-204</t>
     </r>
     <r>
@@ -236,16 +219,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-04-13_13-49_app5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-04-13_13-49_app5</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-128</t>
     </r>
     <r>
@@ -279,43 +256,37 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-04-13_13-52_app5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-microwave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-03-22_16-42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-03-23_18-49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Building</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST mse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seq_length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y2s_dim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kSchedSamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-03-29_15-54_app0_2859</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-04-13_13-52_app5</t>
+  </si>
+  <si>
+    <t>7-microwave</t>
+  </si>
+  <si>
+    <t>18-03-22_16-42</t>
+  </si>
+  <si>
+    <t>18-03-23_18-49</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>TEST mse</t>
+  </si>
+  <si>
+    <t>seq_length</t>
+  </si>
+  <si>
+    <t>y2s_dim</t>
+  </si>
+  <si>
+    <t>kSchedSamp</t>
+  </si>
+  <si>
+    <t>18-03-29_15-54_app0_2859</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-49</t>
     </r>
     <r>
@@ -349,61 +320,55 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-03-29_16-35_app0_2859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-71(c)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-03-29_16-46_app0_2859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{0:lr, 75:(lr/10), 150:(lr/100)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-47(c)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-03-29_16-49_app0_2859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-34(c)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-04-02_10-50_app0_6990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-39(c)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-04-02_10-52_app0_6990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-04-02_10-55_app0_6990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-53(c)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-04-16_11-52_app0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-66(c)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-04-16_11-53_app0</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-03-29_16-35_app0_2859</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>-71(c)</t>
+  </si>
+  <si>
+    <t>18-03-29_16-46_app0_2859</t>
+  </si>
+  <si>
+    <t>{0:lr, 75:(lr/10), 150:(lr/100)}</t>
+  </si>
+  <si>
+    <t>-47(c)</t>
+  </si>
+  <si>
+    <t>18-03-29_16-49_app0_2859</t>
+  </si>
+  <si>
+    <t>-34(c)</t>
+  </si>
+  <si>
+    <t>18-04-02_10-50_app0_6990</t>
+  </si>
+  <si>
+    <t>-39(c)</t>
+  </si>
+  <si>
+    <t>18-04-02_10-52_app0_6990</t>
+  </si>
+  <si>
+    <t>18-04-02_10-55_app0_6990</t>
+  </si>
+  <si>
+    <t>-53(c)</t>
+  </si>
+  <si>
+    <t>18-04-16_11-52_app0</t>
+  </si>
+  <si>
+    <t>-66(c)</t>
+  </si>
+  <si>
+    <t>18-04-16_11-53_app0</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-63</t>
     </r>
     <r>
@@ -437,16 +402,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-04-16_11-55_app0</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-04-16_11-55_app0</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-197</t>
     </r>
     <r>
@@ -480,16 +439,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-04-17_12-16_app0</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-04-17_12-16_app0</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-216</t>
     </r>
     <r>
@@ -523,16 +476,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-04-17_12-21_app0</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-04-17_12-21_app0</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-215</t>
     </r>
     <r>
@@ -566,16 +513,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-04-17_12-25_app0</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-04-17_12-25_app0</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-30</t>
     </r>
     <r>
@@ -609,22 +550,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-04-20_11-43_app0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-04-20_11-44_app0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-04-20_11-45_app0</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-04-20_11-43_app0</t>
+  </si>
+  <si>
+    <t>18-04-20_11-44_app0</t>
+  </si>
+  <si>
+    <t>18-04-20_11-45_app0</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-305</t>
     </r>
     <r>
@@ -658,34 +593,28 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-04-02_21-59_app1_2859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-351(c)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-04-02_22-01_app1_2859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-04-02_22-05_app1_2859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20(c)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-04-03_16-21_app1_6990</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-04-02_21-59_app1_2859</t>
+  </si>
+  <si>
+    <t>-351(c)</t>
+  </si>
+  <si>
+    <t>18-04-02_22-01_app1_2859</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>18-04-02_22-05_app1_2859</t>
+  </si>
+  <si>
+    <t>-20(c)</t>
+  </si>
+  <si>
+    <t>18-04-03_16-21_app1_6990</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-24</t>
     </r>
     <r>
@@ -719,16 +648,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-04-03_16-24_app1_6990</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-04-03_16-24_app1_6990</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-22</t>
     </r>
     <r>
@@ -762,22 +685,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-04-03_16-29_app1_6990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-04-23_15-20_app1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-04-26_17-10_app1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-04-03_16-29_app1_6990</t>
+  </si>
+  <si>
+    <t>18-04-23_15-20_app1</t>
+  </si>
+  <si>
+    <t>18-04-26_17-10_app1</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-232</t>
     </r>
     <r>
@@ -811,16 +728,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-05-04_15-53_app1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-05-04_15-53_app1</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-267</t>
     </r>
     <r>
@@ -854,16 +765,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-05-04_15-56_app1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-05-04_15-56_app1</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-301</t>
     </r>
     <r>
@@ -897,19 +802,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-05-04_16-00_app1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-04-30_12-49_app1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-05-04_16-00_app1</t>
+  </si>
+  <si>
+    <t>18-04-30_12-49_app1</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-160</t>
     </r>
     <r>
@@ -943,16 +842,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-05-07_11-33_app1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-05-07_11-33_app1</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-190</t>
     </r>
     <r>
@@ -986,16 +879,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-05-07_11-34_app1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-05-07_11-34_app1</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-182</t>
     </r>
     <r>
@@ -1029,55 +916,49 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-05-07_11-35_app1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-02_11-49_app1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-08_14-08_app1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Folder does not exist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-08_15-53_app1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-08_16-03_app1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-refri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-21(c)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-04-05_10-32_app2_2859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-42(c)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-04-05_10-34_app2_2859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-56(c)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-04-05_10-36_app2_2859</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-05-07_11-35_app1</t>
+  </si>
+  <si>
+    <t>18-05-02_11-49_app1</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>18-05-08_14-08_app1</t>
+  </si>
+  <si>
+    <t>Folder does not exist</t>
+  </si>
+  <si>
+    <t>18-05-08_15-53_app1</t>
+  </si>
+  <si>
+    <t>18-05-08_16-03_app1</t>
+  </si>
+  <si>
+    <t>2-refri</t>
+  </si>
+  <si>
+    <t>-21(c)</t>
+  </si>
+  <si>
+    <t>18-04-05_10-32_app2_2859</t>
+  </si>
+  <si>
+    <t>-42(c)</t>
+  </si>
+  <si>
+    <t>18-04-05_10-34_app2_2859</t>
+  </si>
+  <si>
+    <t>-56(c)</t>
+  </si>
+  <si>
+    <t>18-04-05_10-36_app2_2859</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-25</t>
     </r>
     <r>
@@ -1111,31 +992,25 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-04-06_11-07_app2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Folders exist but no output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-97(c)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-04-06_11-09_app2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-175(c)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-04-06_11-11_app2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-04-06_11-07_app2</t>
+  </si>
+  <si>
+    <t>Folders exist but no output</t>
+  </si>
+  <si>
+    <t>-97(c)</t>
+  </si>
+  <si>
+    <t>18-04-06_11-09_app2</t>
+  </si>
+  <si>
+    <t>-175(c)</t>
+  </si>
+  <si>
+    <t>18-04-06_11-11_app2</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-57</t>
     </r>
     <r>
@@ -1169,16 +1044,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-05-08_12-05_app2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-05-08_12-05_app2</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-82</t>
     </r>
     <r>
@@ -1212,16 +1081,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-05-08_12-06_app2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-05-08_12-06_app2</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-120</t>
     </r>
     <r>
@@ -1255,25 +1118,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-05-08_12-07_app2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-clotheswasher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-149(c)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-04-09_11-13_app3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-05-08_12-07_app2</t>
+  </si>
+  <si>
+    <t>3-clotheswasher</t>
+  </si>
+  <si>
+    <t>-149(c)</t>
+  </si>
+  <si>
+    <t>18-04-09_11-13_app3</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-222</t>
     </r>
     <r>
@@ -1307,16 +1164,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-04-09_11-15_app3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-04-09_11-15_app3</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-295</t>
     </r>
     <r>
@@ -1350,16 +1201,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-04-09_11-17_app3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-04-09_11-17_app3</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-275</t>
     </r>
     <r>
@@ -1393,16 +1238,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-04-09_12-18_app3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-04-09_12-18_app3</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-287</t>
     </r>
     <r>
@@ -1436,16 +1275,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-04-09_12-20_app3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-04-09_12-20_app3</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-320</t>
     </r>
     <r>
@@ -1479,19 +1312,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-04-09_12-22_app3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-drye</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-04-09_12-22_app3</t>
+  </si>
+  <si>
+    <t>4-drye</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-251</t>
     </r>
     <r>
@@ -1525,16 +1352,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-04-10_12-04_app4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-04-10_12-04_app4</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-344</t>
     </r>
     <r>
@@ -1568,16 +1389,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-04-10_12-06_app4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-04-10_12-06_app4</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-412</t>
     </r>
     <r>
@@ -1611,16 +1426,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-04-10_12-12_app4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-04-10_12-12_app4</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-291</t>
     </r>
     <r>
@@ -1654,16 +1463,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-04-11_12-01_app4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-04-11_12-01_app4</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-329</t>
     </r>
     <r>
@@ -1697,16 +1500,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-04-11_12-03_app4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-04-11_12-03_app4</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-374</t>
     </r>
     <r>
@@ -1740,19 +1537,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-04-11_12-05_app4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-kitchenapp</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-04-11_12-05_app4</t>
+  </si>
+  <si>
+    <t>6-kitchenapp</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-603</t>
     </r>
     <r>
@@ -1786,16 +1577,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-04-12_16-11_app6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-04-12_16-11_app6</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-675</t>
     </r>
     <r>
@@ -1829,16 +1614,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-04-12_16-12_app6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>18-04-12_16-12_app6</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">-424</t>
     </r>
     <r>
@@ -1872,165 +1651,418 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">18-04-12_16-14_app6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-15_10-58_app0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-15_11-02_app0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-15_11-04_app0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-17_15-09_app0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{0:lr, 170:(lr/10)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-17_15-11_app0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-15_11-20_app1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-15_11-32_app1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refrigerator1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-20_23-51_app2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-20_23-52_app2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clotheswasher1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-22_00-08_app3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-22_00-09_app3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drye1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-22_00-12_app4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-22_16-33_app4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dishwasher1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-22_16-38_app5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-22_16-39_app5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kitchenapp1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-22_17-53_app6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-22_18-04_app6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">microwave1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-22_18-10_app7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-23_12-07_app7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-23_12-13_app3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{0:lr, 100:(lr/10)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-23_12-16_app4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-23_12-20_app6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{0:lr, 200:(lr/10)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-24_20-19_app0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-24_20-20_app0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-24_20-21_app1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-25_16-14_app1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-25_16-16_app2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-26_21-15_app2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-29_00-45_app2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{0:lr, 150:(lr/10)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-27_19-27_app2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-27_19-28_app2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-05-29_00-48_app6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dave's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are some folders without output, or some results without folders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elbrus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has some folders before 03-22 that might have interesting things. Although there were before a fixing was done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From now on, using the whole year for window</t>
+    <t>18-04-12_16-14_app6</t>
+  </si>
+  <si>
+    <t>Xt</t>
+  </si>
+  <si>
+    <t>18-05-15_10-58_app0</t>
+  </si>
+  <si>
+    <t>18-05-15_11-02_app0</t>
+  </si>
+  <si>
+    <t>18-05-15_11-04_app0</t>
+  </si>
+  <si>
+    <t>18-05-17_15-09_app0</t>
+  </si>
+  <si>
+    <t>{0:lr, 170:(lr/10)}</t>
+  </si>
+  <si>
+    <t>18-05-17_15-11_app0</t>
+  </si>
+  <si>
+    <t>18-05-15_11-20_app1</t>
+  </si>
+  <si>
+    <t>18-05-15_11-32_app1</t>
+  </si>
+  <si>
+    <t>2-refrigerator1</t>
+  </si>
+  <si>
+    <t>18-05-20_23-51_app2</t>
+  </si>
+  <si>
+    <t>18-05-20_23-52_app2</t>
+  </si>
+  <si>
+    <t>unorm</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>5-dishwasher1</t>
+  </si>
+  <si>
+    <t>18-05-22_16-38_app5</t>
+  </si>
+  <si>
+    <t>18-05-22_16-39_app5</t>
+  </si>
+  <si>
+    <t>no norm</t>
+  </si>
+  <si>
+    <t>18-05-30_11-35_app5</t>
+  </si>
+  <si>
+    <t>0:0.001, 150:0.0001</t>
+  </si>
+  <si>
+    <t>18-05-30_11-54_app5</t>
+  </si>
+  <si>
+    <t>0:0.001, 150:0.00001</t>
+  </si>
+  <si>
+    <t>18-05-30_21-24_app5</t>
+  </si>
+  <si>
+    <t>0:0.01,</t>
+  </si>
+  <si>
+    <t>18-05-30_20-25_app5</t>
+  </si>
+  <si>
+    <t>0:0.001, 150:0.00001, 250:0.000001</t>
+  </si>
+  <si>
+    <t>18-05-30_20-27_app5</t>
+  </si>
+  <si>
+    <t>18-05-31_15-26_app5</t>
+  </si>
+  <si>
+    <t>18-05-31_15-27_app5</t>
+  </si>
+  <si>
+    <t>18-05-31_15-29_app5</t>
+  </si>
+  <si>
+    <t>0:0.001, 150:0.0001, 300:0.00001</t>
+  </si>
+  <si>
+    <t>18-06-01_10-52_app5</t>
+  </si>
+  <si>
+    <t>0:0.001,-</t>
+  </si>
+  <si>
+    <t>18-06-01_10-55_app5</t>
+  </si>
+  <si>
+    <t>18-06-01_10-57_app5</t>
+  </si>
+  <si>
+    <t>7-microwave1</t>
+  </si>
+  <si>
+    <t>18-05-22_18-10_app7</t>
+  </si>
+  <si>
+    <t>18-05-23_12-07_app7</t>
+  </si>
+  <si>
+    <t>18-05-30_10-53_app7</t>
+  </si>
+  <si>
+    <t>0:0.001,</t>
+  </si>
+  <si>
+    <t>18-05-30_10-55_app7</t>
+  </si>
+  <si>
+    <t>18-05-30_16-30_app7</t>
+  </si>
+  <si>
+    <t>18-05-30_16-31_app7</t>
+  </si>
+  <si>
+    <t>18-05-30_19-24_app7</t>
+  </si>
+  <si>
+    <t>0:0.01, 150:0.001</t>
+  </si>
+  <si>
+    <t>18-05-30_19-41_app7</t>
+  </si>
+  <si>
+    <t>clotheswasher1</t>
+  </si>
+  <si>
+    <t>18-05-22_00-08_app3</t>
+  </si>
+  <si>
+    <t>18-05-22_00-09_app3</t>
+  </si>
+  <si>
+    <t>3 -clotheswasher1</t>
+  </si>
+  <si>
+    <t>18-05-23_12-13_app3</t>
+  </si>
+  <si>
+    <t>{0:lr, 100:(lr/10)}</t>
+  </si>
+  <si>
+    <t>18-05-30_10-24_app3</t>
+  </si>
+  <si>
+    <t>18-05-30_10-26_app3</t>
+  </si>
+  <si>
+    <t>0:0.001, 100:0.0001</t>
+  </si>
+  <si>
+    <t>18-05-30_16-02_app3</t>
+  </si>
+  <si>
+    <t>18-05-30_16-07_app3</t>
+  </si>
+  <si>
+    <t>18-05-30_16-11_app3</t>
+  </si>
+  <si>
+    <t>0:0.001, 40:0.0001</t>
+  </si>
+  <si>
+    <t>18-05-30_21-09_app3</t>
+  </si>
+  <si>
+    <t>18-05-31_14-50_app3</t>
+  </si>
+  <si>
+    <t>18-05-31_14-52_app3</t>
+  </si>
+  <si>
+    <t>0:0.001, 100:0.0001,-</t>
+  </si>
+  <si>
+    <t>18-06-01_11-37_app3</t>
+  </si>
+  <si>
+    <t>18-06-01_11-39_app3</t>
+  </si>
+  <si>
+    <t>4-drye1</t>
+  </si>
+  <si>
+    <t>18-05-22_00-12_app4</t>
+  </si>
+  <si>
+    <t>18-05-22_16-33_app4</t>
+  </si>
+  <si>
+    <t>18-05-23_12-16_app4</t>
+  </si>
+  <si>
+    <t>18-05-30_11-21_app4</t>
+  </si>
+  <si>
+    <t>18-05-30_16-17_app4</t>
+  </si>
+  <si>
+    <t>18-05-30_19-41_app4</t>
+  </si>
+  <si>
+    <t>18-05-31_15-00_app4</t>
+  </si>
+  <si>
+    <t>18-05-31_15-17_app4</t>
+  </si>
+  <si>
+    <t>18-06-01_10-39_app4</t>
+  </si>
+  <si>
+    <t>18-06-01_10-41_app4</t>
+  </si>
+  <si>
+    <t>18-06-01_10-42_app4</t>
+  </si>
+  <si>
+    <t>18-05-24_20-19_app0</t>
+  </si>
+  <si>
+    <t>18-05-24_20-20_app0</t>
+  </si>
+  <si>
+    <t>18-05-29_20-10_app0</t>
+  </si>
+  <si>
+    <t>18-05-29_23-36_app0</t>
+  </si>
+  <si>
+    <t>18-05-29_23-37_app0</t>
+  </si>
+  <si>
+    <t>18-05-30_09-38_app0</t>
+  </si>
+  <si>
+    <t>18-05-30_09-53_app0</t>
+  </si>
+  <si>
+    <t>0:0.001, 100: 0.0001</t>
+  </si>
+  <si>
+    <t>18-05-30_15-52_app0</t>
+  </si>
+  <si>
+    <t>18-05-30_20-48_app0</t>
+  </si>
+  <si>
+    <t>0:0.001, 100:0.00001</t>
+  </si>
+  <si>
+    <t>18-05-30_20-51_app0</t>
+  </si>
+  <si>
+    <t>No output</t>
+  </si>
+  <si>
+    <t>18-05-30_20-55_app0</t>
+  </si>
+  <si>
+    <t>18-05-30_20-56_app0</t>
+  </si>
+  <si>
+    <t>0:0.001, 100;0.0001,-</t>
+  </si>
+  <si>
+    <t>18-06-01_11-31_app0</t>
+  </si>
+  <si>
+    <t>18-06-01_11-32_app0</t>
+  </si>
+  <si>
+    <t>18-06-01_11-35_app0</t>
+  </si>
+  <si>
+    <t>18-05-24_20-21_app1</t>
+  </si>
+  <si>
+    <t>18-05-25_16-14_app1</t>
+  </si>
+  <si>
+    <t>18-05-30_10-00_app1</t>
+  </si>
+  <si>
+    <t>18-05-30_15-55_app1</t>
+  </si>
+  <si>
+    <t>0:0.01,-</t>
+  </si>
+  <si>
+    <t>18-05-31_14-15_app1</t>
+  </si>
+  <si>
+    <t>18-05-31_14-36_app1</t>
+  </si>
+  <si>
+    <t>18-06-01_12-05_app1</t>
+  </si>
+  <si>
+    <t>18-05-25_16-16_app2</t>
+  </si>
+  <si>
+    <t>18-05-26_21-15_app2</t>
+  </si>
+  <si>
+    <t>18-05-29_00-45_app2</t>
+  </si>
+  <si>
+    <t>{0:lr, 150:(lr/10)}</t>
+  </si>
+  <si>
+    <t>18-05-27_19-27_app2</t>
+  </si>
+  <si>
+    <t>18-05-27_19-28_app2</t>
+  </si>
+  <si>
+    <t>{0:lr, 200:(lr/10)}</t>
+  </si>
+  <si>
+    <t>18-05-30_10-08_app2</t>
+  </si>
+  <si>
+    <t>18-05-30_10-12_app2</t>
+  </si>
+  <si>
+    <t>18-05-30_10-13_app2</t>
+  </si>
+  <si>
+    <t>18-05-30_16-00_app2</t>
+  </si>
+  <si>
+    <t>18-05-31_11-30_app2</t>
+  </si>
+  <si>
+    <t>18-06-01_11-05_app2</t>
+  </si>
+  <si>
+    <t>18-06-01_11-08_app2</t>
+  </si>
+  <si>
+    <t>18-06-01_11-14_app2</t>
+  </si>
+  <si>
+    <t>6-kitchenapp1</t>
+  </si>
+  <si>
+    <t>18-05-22_17-53_app6</t>
+  </si>
+  <si>
+    <t>18-05-22_18-04_app6</t>
+  </si>
+  <si>
+    <t>18-05-23_12-20_app6</t>
+  </si>
+  <si>
+    <t>18-05-29_00-48_app6</t>
+  </si>
+  <si>
+    <t>18-05-30_10-44_app6</t>
+  </si>
+  <si>
+    <t>18-05-30_16-26_app6</t>
+  </si>
+  <si>
+    <t>18-05-30_16-27_app6</t>
+  </si>
+  <si>
+    <t>Dave's</t>
+  </si>
+  <si>
+    <t>There are some folders without output, or some results without folders</t>
+  </si>
+  <si>
+    <t>elbrus</t>
+  </si>
+  <si>
+    <t>Has some folders before 03-22 that might have interesting things. Although there were before a fixing was done</t>
+  </si>
+  <si>
+    <t>From now on, using the whole year for window</t>
+  </si>
+  <si>
+    <t>Without normalization directly in Kwtts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="MM:SS.00"/>
+    <numFmt numFmtId="166" formatCode="MM/DD/YY"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2059,13 +2091,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2082,6 +2109,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
         <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
   </fills>
@@ -2119,7 +2152,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2148,11 +2181,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2235,7 +2280,7 @@
   </sheetPr>
   <dimension ref="B1:X22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -3117,23 +3162,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z123"/>
+  <dimension ref="A1:Z190"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G69" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z126" activeCellId="0" sqref="Z126"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N188" activeCellId="0" sqref="N188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.03571428571429"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="4" width="11.3418367346939"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7040816326531"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.3418367346939"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.77551020408163"/>
     <col collapsed="false" hidden="false" max="14" min="8" style="0" width="11.3418367346939"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="24.8214285714286"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="23.3010204081633"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
@@ -6490,6 +6535,9 @@
         <v>100</v>
       </c>
     </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="0"/>
+    </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>173</v>
@@ -6836,6 +6884,15 @@
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="0"/>
     </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="0"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="0"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="0"/>
+    </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>173</v>
@@ -6990,137 +7047,229 @@
         <v>100</v>
       </c>
     </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="0"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="0"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="0"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C93" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>-46</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H93" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I93" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="J93" s="0" t="n">
+        <v>-46</v>
+      </c>
+      <c r="K93" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L93" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="M93" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="N93" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="O93" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="P93" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q93" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R93" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S93" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T93" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U93" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V93" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W93" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X93" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y93" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z93" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C94" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>-53</v>
+      </c>
+      <c r="G94" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H94" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I94" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J94" s="0" t="n">
+        <v>-56</v>
+      </c>
+      <c r="K94" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="L94" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M94" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="N94" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O94" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="P94" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q94" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R94" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S94" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T94" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U94" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V94" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W94" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X94" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y94" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z94" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B95" s="0" t="n">
-        <v>2859</v>
-      </c>
-      <c r="C95" s="4" t="n">
-        <v>200</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="E95" s="0" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="F95" s="0" t="n">
-        <v>-46</v>
-      </c>
-      <c r="G95" s="0" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="H95" s="0" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="I95" s="0" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="J95" s="0" t="n">
-        <v>-46</v>
-      </c>
-      <c r="K95" s="0" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="L95" s="0" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="M95" s="0" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="N95" s="0" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="O95" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="P95" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q95" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="R95" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="S95" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T95" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="U95" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="V95" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="W95" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="X95" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y95" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z95" s="0" t="s">
-        <v>115</v>
-      </c>
+      <c r="C95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B96" s="0" t="n">
-        <v>2859</v>
+        <v>185</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>186</v>
       </c>
       <c r="C96" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>-53</v>
+        <v>-28</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>0.03</v>
+        <v>1.62</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>0.84</v>
+        <v>1.14</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>0.37</v>
+        <v>0.64</v>
       </c>
       <c r="J96" s="0" t="n">
-        <v>-56</v>
+        <v>-29</v>
       </c>
       <c r="K96" s="0" t="n">
-        <v>0.79</v>
+        <v>1.13</v>
       </c>
       <c r="L96" s="0" t="n">
-        <v>0.36</v>
+        <v>0.63</v>
       </c>
       <c r="M96" s="0" t="n">
-        <v>0.91</v>
+        <v>1.3</v>
       </c>
       <c r="N96" s="0" t="n">
-        <v>0.37</v>
+        <v>0.71</v>
       </c>
       <c r="O96" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="P96" s="0" t="s">
         <v>60</v>
       </c>
       <c r="Q96" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="R96" s="0" t="n">
         <v>80</v>
@@ -7152,55 +7301,55 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C97" s="4" t="n">
         <v>200</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>-12</v>
+        <v>-70</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>1.95</v>
+        <v>0.69</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>0.71</v>
+        <v>0.45</v>
       </c>
       <c r="J97" s="0" t="n">
-        <v>-46</v>
+        <v>-70</v>
       </c>
       <c r="K97" s="0" t="n">
-        <v>1.91</v>
+        <v>0.69</v>
       </c>
       <c r="L97" s="0" t="n">
-        <v>0.69</v>
+        <v>0.45</v>
       </c>
       <c r="M97" s="0" t="n">
-        <v>2.04</v>
+        <v>0.64</v>
       </c>
       <c r="N97" s="0" t="n">
-        <v>0.71</v>
+        <v>0.44</v>
       </c>
       <c r="O97" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P97" s="0" t="s">
         <v>60</v>
       </c>
       <c r="Q97" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="R97" s="0" t="n">
         <v>80</v>
@@ -7232,55 +7381,55 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C98" s="4" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>0.001</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>45</v>
+        <v>-128</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>1.46</v>
+        <v>0.21</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>0.58</v>
+        <v>0.29</v>
       </c>
       <c r="J98" s="0" t="n">
-        <v>-58</v>
+        <v>-184</v>
       </c>
       <c r="K98" s="0" t="n">
-        <v>1.11</v>
+        <v>0.21</v>
       </c>
       <c r="L98" s="0" t="n">
-        <v>0.45</v>
+        <v>0.29</v>
       </c>
       <c r="M98" s="0" t="n">
-        <v>1.25</v>
+        <v>0.21</v>
       </c>
       <c r="N98" s="0" t="n">
-        <v>0.52</v>
+        <v>0.3</v>
       </c>
       <c r="O98" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P98" s="0" t="s">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="Q98" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="R98" s="0" t="n">
         <v>80</v>
@@ -7306,61 +7455,61 @@
       <c r="Y98" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="Z98" s="0" t="s">
-        <v>115</v>
+      <c r="Z98" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C99" s="4" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>-47</v>
+        <v>-229</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>1.87</v>
+        <v>0.53</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>0.73</v>
+        <v>0.2</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="J99" s="0" t="n">
-        <v>-47</v>
+        <v>-229</v>
       </c>
       <c r="K99" s="0" t="n">
-        <v>0.73</v>
+        <v>0.19</v>
       </c>
       <c r="L99" s="0" t="n">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="M99" s="0" t="n">
-        <v>0.85</v>
+        <v>0.16</v>
       </c>
       <c r="N99" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O99" s="7" t="s">
-        <v>190</v>
+        <v>0.24</v>
+      </c>
+      <c r="O99" s="0" t="s">
+        <v>193</v>
       </c>
       <c r="P99" s="0" t="s">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="Q99" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="R99" s="0" t="n">
         <v>80</v>
@@ -7385,62 +7534,59 @@
       </c>
       <c r="Y99" s="0" t="n">
         <v>100</v>
-      </c>
-      <c r="Z99" s="0" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="C100" s="4" t="n">
-        <v>200</v>
+        <v>186</v>
+      </c>
+      <c r="C100" s="7" t="n">
+        <v>100</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>-16</v>
+        <v>-133</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>0.36</v>
+        <v>0.26</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="J100" s="0" t="n">
-        <v>-63</v>
+        <v>-133</v>
       </c>
       <c r="K100" s="0" t="n">
-        <v>0.36</v>
+        <v>0.23</v>
       </c>
       <c r="L100" s="0" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="M100" s="0" t="n">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
       <c r="N100" s="0" t="n">
         <v>0.31</v>
       </c>
       <c r="O100" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P100" s="0" t="s">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="Q100" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="R100" s="0" t="n">
         <v>80</v>
@@ -7466,61 +7612,61 @@
       <c r="Y100" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="Z100" s="0" t="s">
-        <v>115</v>
+      <c r="Z100" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C101" s="4" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>-28</v>
+        <v>-219</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>1.62</v>
+        <v>0.05</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>1.14</v>
+        <v>0.17</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>0.64</v>
+        <v>0.25</v>
       </c>
       <c r="J101" s="0" t="n">
-        <v>-29</v>
+        <v>-219</v>
       </c>
       <c r="K101" s="0" t="n">
-        <v>1.13</v>
+        <v>0.16</v>
       </c>
       <c r="L101" s="0" t="n">
-        <v>0.63</v>
+        <v>0.24</v>
       </c>
       <c r="M101" s="0" t="n">
-        <v>1.3</v>
+        <v>0.18</v>
       </c>
       <c r="N101" s="0" t="n">
-        <v>0.71</v>
+        <v>0.26</v>
       </c>
       <c r="O101" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P101" s="0" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="Q101" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="R101" s="0" t="n">
         <v>80</v>
@@ -7546,61 +7692,61 @@
       <c r="Y101" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="Z101" s="0" t="s">
-        <v>115</v>
+      <c r="Z101" s="0" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C102" s="4" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>0.001</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>-70</v>
+        <v>-200</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>0.69</v>
+        <v>0.17</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>0.45</v>
+        <v>0.24</v>
       </c>
       <c r="J102" s="0" t="n">
-        <v>-70</v>
+        <v>-200</v>
       </c>
       <c r="K102" s="0" t="n">
-        <v>0.69</v>
+        <v>0.17</v>
       </c>
       <c r="L102" s="0" t="n">
-        <v>0.45</v>
+        <v>0.24</v>
       </c>
       <c r="M102" s="0" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="N102" s="0" t="n">
-        <v>0.44</v>
+        <v>0.14</v>
+      </c>
+      <c r="N102" s="8" t="n">
+        <v>0.22</v>
       </c>
       <c r="O102" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="P102" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="P102" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="Q102" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="R102" s="0" t="n">
         <v>80</v>
@@ -7626,61 +7772,61 @@
       <c r="Y102" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="Z102" s="0" t="s">
-        <v>115</v>
+      <c r="Z102" s="0" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C103" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>-174</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I103" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="J103" s="0" t="n">
+        <v>-174</v>
+      </c>
+      <c r="K103" s="0" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="L103" s="0" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="M103" s="0" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="N103" s="0" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="O103" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="D103" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="E103" s="0" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="F103" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="G103" s="0" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="H103" s="0" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="I103" s="0" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="J103" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="K103" s="0" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="L103" s="0" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="M103" s="0" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="N103" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="O103" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="P103" s="0" t="s">
-        <v>60</v>
+      <c r="P103" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="Q103" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="R103" s="0" t="n">
         <v>80</v>
@@ -7706,61 +7852,61 @@
       <c r="Y103" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="Z103" s="0" t="s">
-        <v>115</v>
+      <c r="Z103" s="0" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C104" s="4" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>0.001</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>10</v>
+        <v>-229</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>1.4</v>
+        <v>0.19</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>0.67</v>
+        <v>0.27</v>
       </c>
       <c r="J104" s="0" t="n">
-        <v>4</v>
+        <v>-234</v>
       </c>
       <c r="K104" s="0" t="n">
-        <v>1.4</v>
+        <v>0.187</v>
       </c>
       <c r="L104" s="0" t="n">
-        <v>0.67</v>
+        <v>0.271</v>
       </c>
       <c r="M104" s="0" t="n">
-        <v>1.39</v>
+        <v>0.189</v>
       </c>
       <c r="N104" s="0" t="n">
-        <v>0.68</v>
+        <v>0.27</v>
       </c>
       <c r="O104" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="P104" s="0" t="s">
-        <v>60</v>
+        <v>201</v>
+      </c>
+      <c r="P104" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="Q104" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="R104" s="0" t="n">
         <v>80</v>
@@ -7786,61 +7932,61 @@
       <c r="Y104" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="Z104" s="0" t="s">
-        <v>115</v>
+      <c r="Z104" s="0" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C105" s="4" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>1</v>
+        <v>-149</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>0.82</v>
+        <v>0.177</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>0.55</v>
+        <v>0.265</v>
       </c>
       <c r="J105" s="0" t="n">
-        <v>1</v>
+        <v>-150</v>
       </c>
       <c r="K105" s="0" t="n">
-        <v>0.81</v>
+        <v>0.17</v>
       </c>
       <c r="L105" s="0" t="n">
-        <v>0.54</v>
+        <v>0.26</v>
       </c>
       <c r="M105" s="0" t="n">
-        <v>0.97</v>
+        <v>0.17</v>
       </c>
       <c r="N105" s="0" t="n">
-        <v>0.58</v>
+        <v>0.253</v>
       </c>
       <c r="O105" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="P105" s="0" t="s">
-        <v>60</v>
+        <v>202</v>
+      </c>
+      <c r="P105" s="9" t="s">
+        <v>203</v>
       </c>
       <c r="Q105" s="0" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="R105" s="0" t="n">
         <v>80</v>
@@ -7866,221 +8012,304 @@
       <c r="Y105" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="Z105" s="0" t="s">
-        <v>115</v>
+      <c r="Z105" s="0" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C106" s="4" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>0.001</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>1</v>
+        <v>-176</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>0.47</v>
+        <v>0.12</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>0.85</v>
+        <v>0.12</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>0.54</v>
+        <v>0.2</v>
       </c>
       <c r="J106" s="0" t="n">
-        <v>1</v>
+        <v>-201</v>
       </c>
       <c r="K106" s="0" t="n">
-        <v>0.85</v>
+        <v>0.12</v>
       </c>
       <c r="L106" s="0" t="n">
-        <v>0.53</v>
+        <v>0.2</v>
       </c>
       <c r="M106" s="0" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="N106" s="0" t="n">
-        <v>0.57</v>
+        <v>0.12</v>
+      </c>
+      <c r="N106" s="5" t="n">
+        <v>0.201</v>
       </c>
       <c r="O106" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="P106" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q106" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="R106" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S106" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T106" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U106" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V106" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W106" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X106" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y106" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z106" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C107" s="4" t="n">
+        <v>400</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <v>-197</v>
+      </c>
+      <c r="G107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I107" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="J107" s="0" t="n">
+        <v>-218</v>
+      </c>
+      <c r="K107" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="L107" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M107" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N107" s="8" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="O107" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="P107" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q107" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="R107" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S107" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T107" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U107" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V107" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W107" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X107" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y107" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z107" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C108" s="4" t="n">
+        <v>400</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <v>-87</v>
+      </c>
+      <c r="G108" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H108" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I108" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="J108" s="0" t="n">
+        <v>-200</v>
+      </c>
+      <c r="K108" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="L108" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M108" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="N108" s="8" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="O108" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="P108" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q108" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="R108" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S108" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T108" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U108" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="P106" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q106" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="R106" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="S106" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T106" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="U106" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="V106" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="W106" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="X106" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y106" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z106" s="0" t="s">
-        <v>115</v>
+      <c r="V108" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W108" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X108" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y108" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z108" s="0" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="C109" s="4" t="n">
-        <v>200</v>
-      </c>
-      <c r="D109" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="E109" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F109" s="0" t="n">
-        <v>-110</v>
-      </c>
-      <c r="G109" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H109" s="0" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="I109" s="0" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="J109" s="0" t="n">
-        <v>-120</v>
-      </c>
-      <c r="K109" s="0" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="L109" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="M109" s="0" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="N109" s="0" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="O109" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="P109" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q109" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="R109" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="S109" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T109" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="U109" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="V109" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="W109" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="X109" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y109" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z109" s="0" t="s">
-        <v>115</v>
-      </c>
+      <c r="C109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>173</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C110" s="4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>-25</v>
+        <v>1</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>0.51</v>
+        <v>0.82</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>0.35</v>
+        <v>0.55</v>
       </c>
       <c r="J110" s="0" t="n">
-        <v>-64</v>
+        <v>1</v>
       </c>
       <c r="K110" s="0" t="n">
-        <v>0.51</v>
+        <v>0.81</v>
       </c>
       <c r="L110" s="0" t="n">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
       <c r="M110" s="0" t="n">
-        <v>0.53</v>
+        <v>0.97</v>
       </c>
       <c r="N110" s="0" t="n">
-        <v>0.35</v>
+        <v>0.58</v>
       </c>
       <c r="O110" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P110" s="0" t="s">
         <v>60</v>
       </c>
       <c r="Q110" s="0" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="R110" s="0" t="n">
         <v>80</v>
@@ -8115,52 +8344,52 @@
         <v>173</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C111" s="4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>0.001</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>-85</v>
+        <v>1</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>11.25</v>
+        <v>0.47</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>0.41</v>
+        <v>0.85</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>0.28</v>
+        <v>0.54</v>
       </c>
       <c r="J111" s="0" t="n">
-        <v>-85</v>
+        <v>1</v>
       </c>
       <c r="K111" s="0" t="n">
-        <v>0.38</v>
+        <v>0.85</v>
       </c>
       <c r="L111" s="0" t="n">
-        <v>0.28</v>
+        <v>0.53</v>
       </c>
       <c r="M111" s="0" t="n">
-        <v>1.1</v>
+        <v>0.97</v>
       </c>
       <c r="N111" s="0" t="n">
-        <v>0.61</v>
+        <v>0.57</v>
       </c>
       <c r="O111" s="0" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="P111" s="0" t="s">
-        <v>205</v>
+        <v>60</v>
       </c>
       <c r="Q111" s="0" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="R111" s="0" t="n">
         <v>80</v>
@@ -8188,6 +8417,86 @@
       </c>
       <c r="Z111" s="0" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C112" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G112" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H112" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I112" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="J112" s="0" t="n">
+        <v>-6</v>
+      </c>
+      <c r="K112" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L112" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="M112" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N112" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O112" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="P112" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q112" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R112" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S112" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T112" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U112" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V112" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W112" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X112" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y112" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z112" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8195,52 +8504,52 @@
         <v>173</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C113" s="4" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>-14</v>
+        <v>-6</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>1.92</v>
+        <v>0.07</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="J113" s="0" t="n">
-        <v>-14</v>
+        <v>-7</v>
       </c>
       <c r="K113" s="0" t="n">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="L113" s="0" t="n">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="M113" s="0" t="n">
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
       <c r="N113" s="0" t="n">
-        <v>0.19</v>
+        <v>0.27</v>
       </c>
       <c r="O113" s="0" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="P113" s="0" t="s">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="Q113" s="0" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R113" s="0" t="n">
         <v>80</v>
@@ -8265,9 +8574,6 @@
       </c>
       <c r="Y113" s="0" t="n">
         <v>100</v>
-      </c>
-      <c r="Z113" s="0" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8275,52 +8581,52 @@
         <v>173</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C114" s="4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>0.001</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>-15</v>
+        <v>-3</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>0.65</v>
+        <v>0.22</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>0.18</v>
+        <v>0.38</v>
       </c>
       <c r="J114" s="0" t="n">
-        <v>-15</v>
+        <v>-3</v>
       </c>
       <c r="K114" s="0" t="n">
-        <v>0.1</v>
+        <v>0.38</v>
       </c>
       <c r="L114" s="0" t="n">
-        <v>0.18</v>
+        <v>0.37</v>
       </c>
       <c r="M114" s="0" t="n">
-        <v>0.11</v>
+        <v>0.39</v>
       </c>
       <c r="N114" s="0" t="n">
-        <v>0.18</v>
+        <v>0.38</v>
       </c>
       <c r="O114" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="P114" s="0" t="s">
-        <v>60</v>
+        <v>212</v>
       </c>
       <c r="Q114" s="0" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R114" s="0" t="n">
         <v>80</v>
@@ -8355,52 +8661,52 @@
         <v>173</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C115" s="4" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>0.09</v>
+        <v>0.32</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>0.86</v>
+        <v>0.19</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>0.54</v>
+        <v>0.22</v>
       </c>
       <c r="J115" s="0" t="n">
-        <v>-20</v>
+        <v>-7</v>
       </c>
       <c r="K115" s="0" t="n">
-        <v>0.86</v>
+        <v>0.17</v>
       </c>
       <c r="L115" s="0" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="M115" s="0" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="N115" s="0" t="n">
-        <v>0.54</v>
+        <v>0.21</v>
+      </c>
+      <c r="M115" s="5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="N115" s="5" t="n">
+        <v>0.24</v>
       </c>
       <c r="O115" s="0" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="P115" s="0" t="s">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="Q115" s="0" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="R115" s="0" t="n">
         <v>80</v>
@@ -8435,75 +8741,33 @@
         <v>173</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C116" s="4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E116" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F116" s="0" t="n">
-        <v>-93</v>
-      </c>
-      <c r="G116" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H116" s="0" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="I116" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="J116" s="0" t="n">
-        <v>-104</v>
-      </c>
-      <c r="K116" s="0" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="L116" s="0" t="n">
-        <v>0.28</v>
+        <v>208</v>
       </c>
       <c r="M116" s="0" t="n">
-        <v>0.41</v>
+        <v>0.49</v>
       </c>
       <c r="N116" s="0" t="n">
-        <v>0.28</v>
+        <v>0.44</v>
       </c>
       <c r="O116" s="0" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P116" s="0" t="s">
-        <v>60</v>
+        <v>217</v>
       </c>
       <c r="Q116" s="0" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="R116" s="0" t="n">
         <v>80</v>
       </c>
       <c r="S116" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T116" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="U116" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="V116" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="W116" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="X116" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y116" s="0" t="n">
         <v>100</v>
       </c>
       <c r="Z116" s="0" t="n">
@@ -8511,216 +8775,74 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="C117" s="4" t="n">
-        <v>200</v>
-      </c>
-      <c r="D117" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="E117" s="0" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="F117" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G117" s="0" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H117" s="0" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="I117" s="0" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J117" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="K117" s="0" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L117" s="0" t="n">
-        <v>0.97</v>
-      </c>
+      <c r="C117" s="0"/>
       <c r="M117" s="0" t="n">
-        <v>2</v>
+        <v>2.73</v>
       </c>
       <c r="N117" s="0" t="n">
-        <v>0.99</v>
+        <v>0.82</v>
       </c>
       <c r="O117" s="0" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="P117" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q117" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="R117" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="S117" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T117" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="U117" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="V117" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="W117" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="X117" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y117" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z117" s="0" t="n">
-        <v>30</v>
+        <v>196</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="C118" s="4" t="n">
-        <v>200</v>
-      </c>
-      <c r="D118" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="E118" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F118" s="0" t="n">
-        <v>-6</v>
-      </c>
-      <c r="G118" s="0" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="H118" s="0" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="I118" s="0" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="J118" s="0" t="n">
-        <v>-9</v>
-      </c>
-      <c r="K118" s="0" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="L118" s="0" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="M118" s="0" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="N118" s="0" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="O118" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="P118" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q118" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="R118" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="S118" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T118" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="U118" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="V118" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="W118" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="X118" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y118" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z118" s="0" t="n">
-        <v>30</v>
-      </c>
+      <c r="C118" s="0"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>173</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C119" s="4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>-17</v>
+        <v>-12</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>1.24</v>
+        <v>1.95</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
       <c r="J119" s="0" t="n">
-        <v>-18</v>
+        <v>-46</v>
       </c>
       <c r="K119" s="0" t="n">
-        <v>1.22</v>
+        <v>1.91</v>
       </c>
       <c r="L119" s="0" t="n">
-        <v>0.57</v>
+        <v>0.69</v>
       </c>
       <c r="M119" s="0" t="n">
-        <v>1.21</v>
+        <v>2.04</v>
       </c>
       <c r="N119" s="0" t="n">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
       <c r="O119" s="0" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="P119" s="0" t="s">
-        <v>213</v>
+        <v>60</v>
       </c>
       <c r="Q119" s="0" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="R119" s="0" t="n">
         <v>80</v>
@@ -8746,8 +8868,8 @@
       <c r="Y119" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="Z119" s="0" t="n">
-        <v>30</v>
+      <c r="Z119" s="0" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8755,52 +8877,52 @@
         <v>173</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C120" s="4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>2.97</v>
+        <v>45</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>0.79</v>
+        <v>0.58</v>
       </c>
       <c r="J120" s="0" t="n">
-        <v>2.46</v>
+        <v>-58</v>
       </c>
       <c r="K120" s="0" t="n">
-        <v>1.53</v>
+        <v>1.11</v>
       </c>
       <c r="L120" s="0" t="n">
-        <v>0.79</v>
+        <v>0.45</v>
       </c>
       <c r="M120" s="0" t="n">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="N120" s="0" t="n">
-        <v>0.78</v>
+        <v>0.52</v>
       </c>
       <c r="O120" s="0" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="P120" s="0" t="s">
         <v>60</v>
       </c>
       <c r="Q120" s="0" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="R120" s="0" t="n">
         <v>80</v>
@@ -8826,8 +8948,8 @@
       <c r="Y120" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="Z120" s="0" t="n">
-        <v>30</v>
+      <c r="Z120" s="0" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8835,52 +8957,52 @@
         <v>173</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C121" s="4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>0.001</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>-15</v>
+        <v>-110</v>
       </c>
       <c r="G121" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>0.57</v>
+        <v>0.61</v>
       </c>
       <c r="J121" s="0" t="n">
-        <v>-16</v>
+        <v>-120</v>
       </c>
       <c r="K121" s="0" t="n">
-        <v>1.18</v>
+        <v>0.87</v>
       </c>
       <c r="L121" s="0" t="n">
-        <v>0.57</v>
+        <v>0.4</v>
       </c>
       <c r="M121" s="0" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="N121" s="0" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="O121" s="0" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="P121" s="0" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="Q121" s="0" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="R121" s="0" t="n">
         <v>80</v>
@@ -8906,87 +9028,4803 @@
       <c r="Y121" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="Z121" s="0" t="n">
+      <c r="Z121" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C122" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>-143</v>
+      </c>
+      <c r="G122" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H122" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I122" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J122" s="0" t="n">
+        <v>-169</v>
+      </c>
+      <c r="K122" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L122" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M122" s="0" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="N122" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="O122" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="P122" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q122" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R122" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S122" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T122" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U122" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V122" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W122" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X122" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y122" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z122" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C123" s="4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="E123" s="0" t="n">
         <v>0.001</v>
       </c>
       <c r="F123" s="0" t="n">
+        <v>-234</v>
+      </c>
+      <c r="G123" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H123" s="0" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I123" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J123" s="0" t="n">
+        <v>-235</v>
+      </c>
+      <c r="K123" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L123" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M123" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="N123" s="8" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O123" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="P123" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q123" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R123" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S123" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T123" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U123" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V123" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W123" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X123" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y123" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z123" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C124" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>-143</v>
+      </c>
+      <c r="G124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I124" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="J124" s="0" t="n">
+        <v>-155</v>
+      </c>
+      <c r="K124" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="L124" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M124" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="N124" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="O124" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="P124" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q124" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R124" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S124" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T124" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U124" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V124" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W124" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X124" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y124" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z124" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C125" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>-209</v>
+      </c>
+      <c r="G125" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H125" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I125" s="5" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="J125" s="0" t="n">
+        <v>-210</v>
+      </c>
+      <c r="K125" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L125" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M125" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="N125" s="5" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="O125" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="P125" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q125" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R125" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S125" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T125" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U125" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V125" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W125" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X125" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y125" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z125" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C126" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>-172</v>
+      </c>
+      <c r="G126" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H126" s="0" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I126" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="J126" s="0" t="n">
+        <v>-172</v>
+      </c>
+      <c r="K126" s="0" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L126" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M126" s="0" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="N126" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="O126" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="P126" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q126" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R126" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S126" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T126" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U126" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V126" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W126" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X126" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y126" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z126" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C127" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F127" s="0" t="n">
+        <v>-235</v>
+      </c>
+      <c r="G127" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H127" s="0" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I127" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J127" s="0" t="n">
+        <v>-235</v>
+      </c>
+      <c r="K127" s="0" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="L127" s="0" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="M127" s="0" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="N127" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O127" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="P127" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q127" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R127" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S127" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T127" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U127" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V127" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W127" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X127" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y127" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z127" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C128" s="7" t="n">
+        <v>300</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F128" s="0" t="n">
+        <v>-236</v>
+      </c>
+      <c r="G128" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="H128" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I128" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J128" s="0" t="n">
+        <v>-244</v>
+      </c>
+      <c r="K128" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="L128" s="0" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="M128" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="N128" s="0" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="O128" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="P128" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q128" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R128" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S128" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T128" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U128" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V128" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W128" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X128" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y128" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z128" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C129" s="4" t="n">
+        <v>400</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>-248</v>
+      </c>
+      <c r="G129" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H129" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I129" s="0" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J129" s="0" t="n">
+        <v>-248</v>
+      </c>
+      <c r="K129" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="L129" s="0" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="M129" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="N129" s="0" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="O129" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="P129" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q129" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R129" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S129" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T129" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U129" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V129" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W129" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X129" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y129" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z129" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C130" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>-214</v>
+      </c>
+      <c r="G130" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H130" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I130" s="0" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="J130" s="0" t="n">
+        <v>-214</v>
+      </c>
+      <c r="K130" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="L130" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M130" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="N130" s="0" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="O130" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="P130" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q130" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R130" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S130" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T130" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U130" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V130" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W130" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X130" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y130" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z130" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C131" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>-226</v>
+      </c>
+      <c r="G131" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H131" s="0" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="I131" s="0" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="J131" s="0" t="n">
+        <v>-227</v>
+      </c>
+      <c r="K131" s="0" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="L131" s="0" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="M131" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="N131" s="0" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="O131" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="P131" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q131" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R131" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S131" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T131" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U131" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="V131" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W131" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X131" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y131" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z131" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C132" s="0"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C133" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>-47</v>
+      </c>
+      <c r="G133" s="0" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H133" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I133" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J133" s="0" t="n">
+        <v>-47</v>
+      </c>
+      <c r="K133" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="L133" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M133" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="N133" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="P133" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q133" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R133" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S133" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T133" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U133" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V133" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W133" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X133" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y133" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z133" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C134" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <v>-16</v>
+      </c>
+      <c r="G134" s="0" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H134" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I134" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J134" s="0" t="n">
+        <v>-63</v>
+      </c>
+      <c r="K134" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="L134" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M134" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="N134" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="O134" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="P134" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q134" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R134" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S134" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T134" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U134" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V134" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W134" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X134" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y134" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z134" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C135" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>-25</v>
+      </c>
+      <c r="G135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" s="0" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I135" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="J135" s="0" t="n">
+        <v>-64</v>
+      </c>
+      <c r="K135" s="0" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="L135" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="M135" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="N135" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="O135" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="P135" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q135" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R135" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S135" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T135" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U135" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V135" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W135" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X135" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y135" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z135" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C136" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>-186</v>
+      </c>
+      <c r="G136" s="0" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="H136" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I136" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J136" s="0" t="n">
+        <v>-186</v>
+      </c>
+      <c r="K136" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="L136" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M136" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="N136" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O136" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="P136" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q136" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R136" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S136" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T136" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U136" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V136" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W136" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X136" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y136" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z136" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C137" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F137" s="0" t="n">
+        <v>-123</v>
+      </c>
+      <c r="G137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" s="0" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="I137" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J137" s="0" t="n">
+        <v>-12</v>
+      </c>
+      <c r="K137" s="0" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="L137" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="M137" s="0" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="N137" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="O137" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="P137" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q137" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R137" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S137" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T137" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U137" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V137" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W137" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X137" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y137" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z137" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C138" s="7" t="n">
+        <v>300</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>-142</v>
+      </c>
+      <c r="G138" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" s="0" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="I138" s="0" t="n">
+        <v>0.797</v>
+      </c>
+      <c r="J138" s="0" t="n">
+        <v>-142</v>
+      </c>
+      <c r="K138" s="0" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="L138" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M138" s="0" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="N138" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="O138" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="P138" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q138" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R138" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S138" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T138" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U138" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V138" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W138" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X138" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y138" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z138" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C139" s="7" t="n">
+        <v>300</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F139" s="0" t="n">
+        <v>-169</v>
+      </c>
+      <c r="G139" s="0" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="H139" s="0" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="I139" s="0" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="J139" s="0" t="n">
+        <v>-169</v>
+      </c>
+      <c r="K139" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L139" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M139" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" s="0" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="O139" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="P139" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q139" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R139" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S139" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T139" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U139" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V139" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W139" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X139" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y139" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z139" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C140" s="7" t="n">
+        <v>400</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>-206</v>
+      </c>
+      <c r="G140" s="0" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="H140" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I140" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J140" s="0" t="n">
+        <v>-206</v>
+      </c>
+      <c r="K140" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="L140" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M140" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="N140" s="8" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="O140" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="P140" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q140" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R140" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S140" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T140" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U140" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V140" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W140" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X140" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y140" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z140" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C141" s="7" t="n">
+        <v>500</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>-214</v>
+      </c>
+      <c r="G141" s="0" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="H141" s="0" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="I141" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J141" s="0" t="n">
+        <v>-214</v>
+      </c>
+      <c r="K141" s="0" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="L141" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M141" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="N141" s="8" t="n">
+        <v>0.338</v>
+      </c>
+      <c r="O141" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="P141" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q141" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R141" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S141" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T141" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U141" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V141" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W141" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X141" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y141" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z141" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C142" s="7" t="n">
+        <v>600</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F142" s="0" t="n">
+        <v>-174</v>
+      </c>
+      <c r="G142" s="0" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="H142" s="0" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="I142" s="0" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="J142" s="0" t="n">
+        <v>-195</v>
+      </c>
+      <c r="K142" s="0" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="L142" s="0" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="M142" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N142" s="5" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="O142" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="P142" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q142" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R142" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S142" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T142" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U142" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V142" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W142" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X142" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y142" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z142" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C143" s="7" t="n">
+        <v>600</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F143" s="0" t="n">
+        <v>-210</v>
+      </c>
+      <c r="G143" s="0" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="H143" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I143" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J143" s="0" t="n">
+        <v>-213</v>
+      </c>
+      <c r="K143" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L143" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M143" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="N143" s="8" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="O143" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="P143" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q143" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R143" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S143" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T143" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="U143" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V143" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W143" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X143" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y143" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z143" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C144" s="0"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C145" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>-14</v>
+      </c>
+      <c r="G145" s="0" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H145" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I145" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J145" s="0" t="n">
+        <v>-14</v>
+      </c>
+      <c r="K145" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L145" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M145" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N145" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="O145" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="P145" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q145" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R145" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S145" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T145" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U145" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V145" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W145" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X145" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y145" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z145" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C146" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>-15</v>
+      </c>
+      <c r="G146" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H146" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I146" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J146" s="0" t="n">
+        <v>-15</v>
+      </c>
+      <c r="K146" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L146" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M146" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N146" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="O146" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="P146" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q146" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R146" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S146" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T146" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U146" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V146" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W146" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X146" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y146" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z146" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C147" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F147" s="0" t="n">
+        <v>-89</v>
+      </c>
+      <c r="G147" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H147" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I147" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J147" s="0" t="n">
+        <v>-94</v>
+      </c>
+      <c r="K147" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L147" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M147" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N147" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O147" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="P147" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q147" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R147" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="S147" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="T147" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U147" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V147" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W147" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X147" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y147" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z147" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C148" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F148" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G148" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H148" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I148" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="J148" s="0" t="n">
+        <v>-96</v>
+      </c>
+      <c r="K148" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L148" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M148" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="N148" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="O148" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="P148" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q148" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R148" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S148" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T148" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U148" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V148" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W148" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X148" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y148" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z148" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C149" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D149" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>-78</v>
+      </c>
+      <c r="G149" s="0" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H149" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I149" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="J149" s="0" t="n">
+        <v>-81</v>
+      </c>
+      <c r="K149" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L149" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M149" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="N149" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="O149" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="P149" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q149" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R149" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S149" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T149" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U149" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V149" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W149" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X149" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y149" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z149" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C150" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>-77</v>
+      </c>
+      <c r="G150" s="0" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H150" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I150" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J150" s="0" t="n">
+        <v>-93</v>
+      </c>
+      <c r="K150" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L150" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M150" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N150" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O150" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="P150" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q150" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R150" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="S150" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="T150" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U150" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V150" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W150" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X150" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y150" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z150" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C151" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F151" s="0" t="n">
+        <v>-92</v>
+      </c>
+      <c r="G151" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H151" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I151" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J151" s="0" t="n">
+        <v>-92</v>
+      </c>
+      <c r="K151" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L151" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M151" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N151" s="5" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="O151" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="P151" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q151" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R151" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="S151" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="T151" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U151" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V151" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W151" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X151" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y151" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z151" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C152" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E152" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F152" s="0" t="n">
+        <v>-19</v>
+      </c>
+      <c r="G152" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I152" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J152" s="0" t="n">
         <v>-33</v>
       </c>
-      <c r="G123" s="0" t="n">
+      <c r="K152" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L152" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="M152" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="N152" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O152" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="P152" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q152" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R152" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="S152" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="T152" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U152" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V152" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W152" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X152" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y152" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z152" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C153" s="7" t="n">
+        <v>300</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E153" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F153" s="0" t="n">
+        <v>-129</v>
+      </c>
+      <c r="G153" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H153" s="0" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="I153" s="0" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="J153" s="0" t="n">
+        <v>-132</v>
+      </c>
+      <c r="K153" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="L153" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M153" s="0" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="N153" s="0" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="O153" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="P153" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q153" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R153" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="S153" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="T153" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U153" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V153" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W153" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X153" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y153" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z153" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C154" s="7" t="n">
+        <v>300</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E154" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N154" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="O154" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="P154" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q154" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R154" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S154" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z154" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C155" s="7" t="n">
+        <v>400</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E155" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N155" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="O155" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="P155" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q155" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R155" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S155" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z155" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C156" s="7" t="n">
+        <v>300</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E156" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F156" s="0" t="n">
+        <v>-126</v>
+      </c>
+      <c r="G156" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H156" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I156" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J156" s="0" t="n">
+        <v>-126</v>
+      </c>
+      <c r="K156" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L156" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M156" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N156" s="0" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="O156" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="P156" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q156" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R156" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S156" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T156" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U156" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V156" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W156" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X156" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y156" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z156" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C157" s="7" t="n">
+        <v>300</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E157" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F157" s="0" t="n">
+        <v>-100</v>
+      </c>
+      <c r="G157" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H157" s="0" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="I157" s="0" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="J157" s="0" t="n">
+        <v>-122</v>
+      </c>
+      <c r="K157" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L157" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M157" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N157" s="0" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="O157" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="P157" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q157" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R157" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S157" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T157" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U157" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="V157" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W157" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X157" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y157" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z157" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C158" s="7" t="n">
+        <v>300</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F158" s="0" t="n">
+        <v>-114</v>
+      </c>
+      <c r="G158" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H158" s="0" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I158" s="0" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="J158" s="0" t="n">
+        <v>-114</v>
+      </c>
+      <c r="K158" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L158" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M158" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N158" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O158" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="P158" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q158" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R158" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S158" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T158" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U158" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="V158" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W158" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X158" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y158" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z158" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C159" s="7" t="n">
+        <v>400</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E159" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F159" s="0" t="n">
+        <v>-100</v>
+      </c>
+      <c r="G159" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H159" s="0" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I159" s="0" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="J159" s="0" t="n">
+        <v>-104</v>
+      </c>
+      <c r="K159" s="0" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="L159" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M159" s="0" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N159" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O159" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="P159" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q159" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R159" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S159" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T159" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U159" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V159" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W159" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X159" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y159" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z159" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C160" s="0"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C161" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E161" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F161" s="0" t="n">
+        <v>-12</v>
+      </c>
+      <c r="G161" s="0" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H161" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I161" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="J161" s="0" t="n">
+        <v>-20</v>
+      </c>
+      <c r="K161" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="L161" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="M161" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="N161" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="O161" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="P161" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q161" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="R161" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S161" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T161" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U161" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V161" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W161" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X161" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y161" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z161" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C162" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D162" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E162" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F162" s="0" t="n">
+        <v>-93</v>
+      </c>
+      <c r="G162" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H123" s="0" t="n">
+      <c r="H162" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I162" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J162" s="0" t="n">
+        <v>-104</v>
+      </c>
+      <c r="K162" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="L162" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M162" s="0" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="N162" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="O162" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="P162" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q162" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="R162" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S162" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T162" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U162" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V162" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W162" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X162" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y162" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z162" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C163" s="7" t="n">
+        <v>300</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E163" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F163" s="0" t="n">
+        <v>-53</v>
+      </c>
+      <c r="G163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I163" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J163" s="0" t="n">
+        <v>-169</v>
+      </c>
+      <c r="K163" s="0" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="L163" s="5" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="M163" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N163" s="5" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="O163" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="P163" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q163" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="R163" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S163" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T163" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U163" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V163" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W163" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X163" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y163" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z163" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C164" s="7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D164" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E164" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F164" s="0" t="n">
+        <v>-118</v>
+      </c>
+      <c r="G164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I164" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J164" s="0" t="n">
+        <v>-118</v>
+      </c>
+      <c r="K164" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L164" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M164" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="N164" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="O164" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="P164" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q164" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="R164" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S164" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T164" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U164" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V164" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W164" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X164" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y164" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z164" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C165" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E165" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F165" s="0" t="n">
+        <v>-113</v>
+      </c>
+      <c r="G165" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I165" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J165" s="0" t="n">
+        <v>-113</v>
+      </c>
+      <c r="K165" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L165" s="0" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="M165" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N165" s="0" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="O165" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="P165" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q165" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="R165" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S165" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T165" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U165" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V165" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W165" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X165" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y165" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z165" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C166" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D166" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F166" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="G166" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H166" s="0" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="I166" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="J166" s="0" t="n">
+        <v>-174</v>
+      </c>
+      <c r="K166" s="0" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="L166" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M166" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="N166" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="O166" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="P166" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q166" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="R166" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S166" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T166" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U166" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V166" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W166" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X166" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y166" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z166" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C167" s="7" t="n">
+        <v>300</v>
+      </c>
+      <c r="D167" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E167" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F167" s="0" t="n">
+        <v>-137</v>
+      </c>
+      <c r="G167" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H167" s="0" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I167" s="0" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="J167" s="0" t="n">
+        <v>-226</v>
+      </c>
+      <c r="K167" s="0" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="L167" s="0" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="M167" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="N167" s="0" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="O167" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="P167" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q167" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="R167" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S167" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T167" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U167" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="V167" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W167" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X167" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y167" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z167" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C168" s="7"/>
+      <c r="U168" s="8"/>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C169" s="0"/>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C170" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D170" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E170" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F170" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G170" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H170" s="0" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I170" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J170" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="K170" s="0" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L170" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="M170" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N170" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="O170" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="P170" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q170" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R170" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S170" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T170" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U170" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V170" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W170" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X170" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y170" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z170" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C171" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E171" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F171" s="0" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G171" s="0" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="H171" s="0" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I171" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J171" s="0" t="n">
+        <v>-9</v>
+      </c>
+      <c r="K171" s="0" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L171" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="M171" s="0" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N171" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O171" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="P171" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q171" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R171" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S171" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T171" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U171" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V171" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W171" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X171" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y171" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z171" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C172" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E172" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F172" s="0" t="n">
+        <v>-17</v>
+      </c>
+      <c r="G172" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" s="0" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I172" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J172" s="0" t="n">
+        <v>-18</v>
+      </c>
+      <c r="K172" s="0" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="L172" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="M172" s="0" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="N172" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O172" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="P172" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q172" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R172" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S172" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T172" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U172" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V172" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W172" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X172" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y172" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z172" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C173" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E173" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F173" s="0" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="G173" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" s="0" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I173" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J173" s="0" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K173" s="0" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="L173" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="M173" s="0" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="N173" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="O173" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="P173" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q173" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R173" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S173" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T173" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U173" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V173" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W173" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X173" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y173" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z173" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C174" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="D174" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E174" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F174" s="0" t="n">
+        <v>-15</v>
+      </c>
+      <c r="G174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" s="0" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I174" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J174" s="0" t="n">
+        <v>-16</v>
+      </c>
+      <c r="K174" s="0" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="L174" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="M174" s="0" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="N174" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O174" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="P174" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q174" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R174" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S174" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T174" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U174" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V174" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W174" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X174" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y174" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z174" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C175" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D175" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E175" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F175" s="0" t="n">
+        <v>-53</v>
+      </c>
+      <c r="G175" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H175" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I175" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J175" s="0" t="n">
+        <v>-74</v>
+      </c>
+      <c r="K175" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="L175" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M175" s="0" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="N175" s="0" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="O175" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="P175" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C176" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D176" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E176" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F176" s="0" t="n">
+        <v>-74</v>
+      </c>
+      <c r="G176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I176" s="0" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="J176" s="0" t="n">
+        <v>-74</v>
+      </c>
+      <c r="K176" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="L176" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M176" s="0" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="N176" s="0" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="O176" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="P176" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q176" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R176" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S176" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T176" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U176" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V176" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W176" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X176" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y176" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z176" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C177" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="D177" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E177" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F177" s="0" t="n">
+        <v>-89</v>
+      </c>
+      <c r="G177" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H177" s="0" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="I177" s="0" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="J177" s="0" t="n">
+        <v>-89</v>
+      </c>
+      <c r="K177" s="0" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="L177" s="0" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="M177" s="0" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="N177" s="5" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="O177" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="P177" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q177" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R177" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S177" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T177" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U177" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V177" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W177" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X177" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y177" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z177" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C178" s="7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D178" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E178" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F178" s="0" t="n">
+        <v>-74</v>
+      </c>
+      <c r="G178" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I178" s="0" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="J178" s="0" t="n">
+        <v>-82</v>
+      </c>
+      <c r="K178" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L178" s="0" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="M178" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N178" s="0" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="O178" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="P178" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q178" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R178" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S178" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T178" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U178" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V178" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W178" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X178" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y178" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z178" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C179" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="D179" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E179" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F179" s="0" t="n">
+        <v>-74</v>
+      </c>
+      <c r="G179" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H179" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I179" s="0" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="J179" s="0" t="n">
+        <v>-76</v>
+      </c>
+      <c r="K179" s="0" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="L179" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="M179" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N179" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O179" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="P179" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C180" s="7" t="n">
+        <v>300</v>
+      </c>
+      <c r="D180" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E180" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F180" s="0" t="n">
+        <v>-64</v>
+      </c>
+      <c r="G180" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H180" s="0" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="I180" s="0" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="J180" s="0" t="n">
+        <v>-83</v>
+      </c>
+      <c r="K180" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="L180" s="0" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="M180" s="7" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="N180" s="7" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="O180" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="P180" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q180" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R180" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S180" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T180" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U180" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V180" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W180" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X180" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y180" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z180" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C181" s="7" t="n">
+        <v>400</v>
+      </c>
+      <c r="D181" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E181" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="M181" s="7"/>
+      <c r="N181" s="7"/>
+      <c r="O181" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q181" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R181" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S181" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C182" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="D182" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E182" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F182" s="0" t="n">
+        <v>-53</v>
+      </c>
+      <c r="G182" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="H182" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I182" s="0" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="J182" s="0" t="n">
+        <v>-80</v>
+      </c>
+      <c r="K182" s="0" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="L182" s="0" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="M182" s="7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N182" s="7" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="O182" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="P182" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q182" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R182" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="S182" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="T182" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U182" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="V182" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W182" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X182" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y182" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z182" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C183" s="7"/>
+      <c r="M183" s="7"/>
+      <c r="N183" s="7"/>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C184" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D184" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="E184" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="F184" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="G184" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H184" s="0" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I184" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J184" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="K184" s="0" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="L184" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="M184" s="0" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="N184" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O184" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="P184" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q184" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="R184" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S184" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T184" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U184" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V184" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W184" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X184" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y184" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z184" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C185" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D185" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="E185" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F185" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G185" s="0" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H185" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I185" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J185" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K185" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L185" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="M185" s="0" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="N185" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="O185" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="P185" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q185" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="R185" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S185" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T185" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U185" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V185" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W185" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X185" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y185" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z185" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C186" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="D186" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="E186" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F186" s="0" t="n">
+        <v>-85</v>
+      </c>
+      <c r="G186" s="0" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="H186" s="0" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I186" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J186" s="0" t="n">
+        <v>-85</v>
+      </c>
+      <c r="K186" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="L186" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M186" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N186" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="O186" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="P186" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q186" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="R186" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S186" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T186" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U186" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V186" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W186" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X186" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y186" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z186" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C187" s="4" t="n">
+        <v>250</v>
+      </c>
+      <c r="D187" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="E187" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F187" s="0" t="n">
+        <v>-33</v>
+      </c>
+      <c r="G187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" s="0" t="n">
         <v>1.74</v>
       </c>
-      <c r="I123" s="0" t="n">
+      <c r="I187" s="0" t="n">
         <v>0.74</v>
       </c>
-      <c r="J123" s="0" t="n">
+      <c r="J187" s="0" t="n">
         <v>-33</v>
       </c>
-      <c r="K123" s="0" t="n">
+      <c r="K187" s="0" t="n">
         <v>1.6</v>
       </c>
-      <c r="L123" s="0" t="n">
+      <c r="L187" s="0" t="n">
         <v>0.74</v>
       </c>
-      <c r="M123" s="0" t="n">
+      <c r="M187" s="0" t="n">
         <v>1.58</v>
       </c>
-      <c r="N123" s="0" t="n">
+      <c r="N187" s="0" t="n">
         <v>0.71</v>
       </c>
-      <c r="O123" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="P123" s="0" t="s">
+      <c r="O187" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="P187" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q187" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="R187" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="S187" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="T187" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U187" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V187" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W187" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X187" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y187" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z187" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C188" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D188" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="E188" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F188" s="0" t="n">
+        <v>-19</v>
+      </c>
+      <c r="G188" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H188" s="0" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="I188" s="0" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="J188" s="0" t="n">
+        <v>-20</v>
+      </c>
+      <c r="K188" s="0" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="L188" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="M188" s="0" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="N188" s="5" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="O188" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="P188" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="Q123" s="0" t="n">
+      <c r="Q188" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="R123" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="S123" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="T123" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="U123" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="V123" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="W123" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="X123" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y123" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z123" s="0" t="n">
+      <c r="R188" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S188" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T188" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U188" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V188" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W188" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X188" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y188" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z188" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C189" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="D189" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="E189" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F189" s="0" t="n">
+        <v>-162</v>
+      </c>
+      <c r="G189" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H189" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I189" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J189" s="0" t="n">
+        <v>-162</v>
+      </c>
+      <c r="K189" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="L189" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="M189" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="N189" s="0" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="O189" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="P189" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q189" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="R189" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S189" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T189" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U189" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V189" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W189" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X189" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y189" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z189" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C190" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D190" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="E190" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F190" s="0" t="n">
+        <v>-91</v>
+      </c>
+      <c r="G190" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I190" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="J190" s="0" t="n">
+        <v>-102</v>
+      </c>
+      <c r="K190" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="L190" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="M190" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="N190" s="0" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="O190" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="P190" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q190" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="R190" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S190" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T190" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U190" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V190" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W190" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X190" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y190" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z190" s="0" t="n">
         <v>30</v>
       </c>
     </row>
@@ -9006,10 +13844,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9019,26 +13857,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>217</v>
+        <v>300</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>218</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>220</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="11" t="n">
         <v>43235</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>221</v>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="n">
+        <v>43250</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/VRNN_theano_version/output/vrnn-dis1-dataport.xlsx
+++ b/VRNN_theano_version/output/vrnn-dis1-dataport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="228" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="all-builds" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,139 +13,150 @@
     <sheet name="notes" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="329">
-  <si>
-    <t>epochs</t>
-  </si>
-  <si>
-    <t>appliance</t>
-  </si>
-  <si>
-    <t>Initial LR</t>
-  </si>
-  <si>
-    <t>Log-likelihood</t>
-  </si>
-  <si>
-    <t>KL</t>
-  </si>
-  <si>
-    <t>MSE</t>
-  </si>
-  <si>
-    <t>MAE</t>
-  </si>
-  <si>
-    <t>best log-likelihood</t>
-  </si>
-  <si>
-    <t>Best MSE</t>
-  </si>
-  <si>
-    <t>Best MAE</t>
-  </si>
-  <si>
-    <t>Test MSE</t>
-  </si>
-  <si>
-    <t>Test MAE</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>LR changes</t>
-  </si>
-  <si>
-    <t>buildings</t>
-  </si>
-  <si>
-    <t>z_dim</t>
-  </si>
-  <si>
-    <t>rnn_dim</t>
-  </si>
-  <si>
-    <t>q_z_dim</t>
-  </si>
-  <si>
-    <t>p_z_dim</t>
-  </si>
-  <si>
-    <t>p_x_dim</t>
-  </si>
-  <si>
-    <t>x2s_dim</t>
-  </si>
-  <si>
-    <t>z2s_dim</t>
-  </si>
-  <si>
-    <t>0-air</t>
-  </si>
-  <si>
-    <t>18-03-22_19-08</t>
-  </si>
-  <si>
-    <t>const</t>
-  </si>
-  <si>
-    <t>18-03-22_20-06</t>
-  </si>
-  <si>
-    <t>18-03-23_11-25</t>
-  </si>
-  <si>
-    <t>0:0.0001, 100:0.00001</t>
-  </si>
-  <si>
-    <t>18-03-23_11-32</t>
-  </si>
-  <si>
-    <t>18-03-24_11-02</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>18-03-27_10-03</t>
-  </si>
-  <si>
-    <t>18-03-28_14-13</t>
-  </si>
-  <si>
-    <t>1-furnace</t>
-  </si>
-  <si>
-    <t>18-05-13_11-58</t>
-  </si>
-  <si>
-    <t>0:0.0001, 75:0.00001, 150:0.000001</t>
-  </si>
-  <si>
-    <t>5-dishwasher</t>
-  </si>
-  <si>
-    <t>18-03-22_17-12</t>
-  </si>
-  <si>
-    <t>18-03-23_17-36</t>
-  </si>
-  <si>
-    <t>18-03-24_10-28</t>
-  </si>
-  <si>
-    <t>18-03-25_20-20</t>
-  </si>
-  <si>
-    <t>18-03-26_11-25</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="336">
+  <si>
+    <t xml:space="preserve">epochs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log-likelihood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best log-likelihood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best MSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best MAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test MSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test MAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buildings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z_dim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rnn_dim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q_z_dim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_z_dim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_x_dim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x2s_dim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z2s_dim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-22_19-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">const</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-22_20-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-23_11-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:0.0001, 100:0.00001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-23_11-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-24_11-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-27_10-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-28_14-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-furnace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-13_11-58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:0.0001, 75:0.00001, 150:0.000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-dishwasher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-22_17-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-23_17-36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-24_10-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-25_20-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-26_11-25</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-96</t>
     </r>
     <r>
@@ -179,13 +190,19 @@
     </r>
   </si>
   <si>
-    <t>18-04-13_13-47_app5</t>
-  </si>
-  <si>
-    <t>0:lr, 75:(lr/10), 150:(lr/100)</t>
+    <t xml:space="preserve">18-04-13_13-47_app5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:lr, 75:(lr/10), 150:(lr/100)</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-204</t>
     </r>
     <r>
@@ -219,10 +236,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-13_13-49_app5</t>
+    <t xml:space="preserve">18-04-13_13-49_app5</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-128</t>
     </r>
     <r>
@@ -256,37 +279,43 @@
     </r>
   </si>
   <si>
-    <t>18-04-13_13-52_app5</t>
-  </si>
-  <si>
-    <t>7-microwave</t>
-  </si>
-  <si>
-    <t>18-03-22_16-42</t>
-  </si>
-  <si>
-    <t>18-03-23_18-49</t>
-  </si>
-  <si>
-    <t>Building</t>
-  </si>
-  <si>
-    <t>TEST mse</t>
-  </si>
-  <si>
-    <t>seq_length</t>
-  </si>
-  <si>
-    <t>y2s_dim</t>
-  </si>
-  <si>
-    <t>kSchedSamp</t>
-  </si>
-  <si>
-    <t>18-03-29_15-54_app0_2859</t>
+    <t xml:space="preserve">18-04-13_13-52_app5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-microwave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-22_16-42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-23_18-49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST mse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seq_length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y2s_dim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kSchedSamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-29_15-54_app0_2859</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-49</t>
     </r>
     <r>
@@ -320,55 +349,61 @@
     </r>
   </si>
   <si>
-    <t>18-03-29_16-35_app0_2859</t>
-  </si>
-  <si>
-    <t>constant</t>
-  </si>
-  <si>
-    <t>-71(c)</t>
-  </si>
-  <si>
-    <t>18-03-29_16-46_app0_2859</t>
-  </si>
-  <si>
-    <t>{0:lr, 75:(lr/10), 150:(lr/100)}</t>
-  </si>
-  <si>
-    <t>-47(c)</t>
-  </si>
-  <si>
-    <t>18-03-29_16-49_app0_2859</t>
-  </si>
-  <si>
-    <t>-34(c)</t>
-  </si>
-  <si>
-    <t>18-04-02_10-50_app0_6990</t>
-  </si>
-  <si>
-    <t>-39(c)</t>
-  </si>
-  <si>
-    <t>18-04-02_10-52_app0_6990</t>
-  </si>
-  <si>
-    <t>18-04-02_10-55_app0_6990</t>
-  </si>
-  <si>
-    <t>-53(c)</t>
-  </si>
-  <si>
-    <t>18-04-16_11-52_app0</t>
-  </si>
-  <si>
-    <t>-66(c)</t>
-  </si>
-  <si>
-    <t>18-04-16_11-53_app0</t>
+    <t xml:space="preserve">18-03-29_16-35_app0_2859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-71(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-29_16-46_app0_2859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0:lr, 75:(lr/10), 150:(lr/100)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-47(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-03-29_16-49_app0_2859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-34(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-02_10-50_app0_6990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-39(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-02_10-52_app0_6990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-02_10-55_app0_6990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-53(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-16_11-52_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-66(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-16_11-53_app0</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-63</t>
     </r>
     <r>
@@ -402,10 +437,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-16_11-55_app0</t>
+    <t xml:space="preserve">18-04-16_11-55_app0</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-197</t>
     </r>
     <r>
@@ -439,10 +480,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-17_12-16_app0</t>
+    <t xml:space="preserve">18-04-17_12-16_app0</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-216</t>
     </r>
     <r>
@@ -476,10 +523,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-17_12-21_app0</t>
+    <t xml:space="preserve">18-04-17_12-21_app0</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-215</t>
     </r>
     <r>
@@ -513,10 +566,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-17_12-25_app0</t>
+    <t xml:space="preserve">18-04-17_12-25_app0</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-30</t>
     </r>
     <r>
@@ -550,16 +609,22 @@
     </r>
   </si>
   <si>
-    <t>18-04-20_11-43_app0</t>
-  </si>
-  <si>
-    <t>18-04-20_11-44_app0</t>
-  </si>
-  <si>
-    <t>18-04-20_11-45_app0</t>
+    <t xml:space="preserve">18-04-20_11-43_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-20_11-44_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-20_11-45_app0</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-305</t>
     </r>
     <r>
@@ -593,28 +658,34 @@
     </r>
   </si>
   <si>
-    <t>18-04-02_21-59_app1_2859</t>
-  </si>
-  <si>
-    <t>-351(c)</t>
-  </si>
-  <si>
-    <t>18-04-02_22-01_app1_2859</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>18-04-02_22-05_app1_2859</t>
-  </si>
-  <si>
-    <t>-20(c)</t>
-  </si>
-  <si>
-    <t>18-04-03_16-21_app1_6990</t>
+    <t xml:space="preserve">18-04-02_21-59_app1_2859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-351(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-02_22-01_app1_2859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-02_22-05_app1_2859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-03_16-21_app1_6990</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-24</t>
     </r>
     <r>
@@ -648,10 +719,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-03_16-24_app1_6990</t>
+    <t xml:space="preserve">18-04-03_16-24_app1_6990</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-22</t>
     </r>
     <r>
@@ -685,16 +762,22 @@
     </r>
   </si>
   <si>
-    <t>18-04-03_16-29_app1_6990</t>
-  </si>
-  <si>
-    <t>18-04-23_15-20_app1</t>
-  </si>
-  <si>
-    <t>18-04-26_17-10_app1</t>
+    <t xml:space="preserve">18-04-03_16-29_app1_6990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-23_15-20_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-26_17-10_app1</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-232</t>
     </r>
     <r>
@@ -728,10 +811,16 @@
     </r>
   </si>
   <si>
-    <t>18-05-04_15-53_app1</t>
+    <t xml:space="preserve">18-05-04_15-53_app1</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-267</t>
     </r>
     <r>
@@ -765,10 +854,16 @@
     </r>
   </si>
   <si>
-    <t>18-05-04_15-56_app1</t>
+    <t xml:space="preserve">18-05-04_15-56_app1</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-301</t>
     </r>
     <r>
@@ -802,13 +897,19 @@
     </r>
   </si>
   <si>
-    <t>18-05-04_16-00_app1</t>
-  </si>
-  <si>
-    <t>18-04-30_12-49_app1</t>
+    <t xml:space="preserve">18-05-04_16-00_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-30_12-49_app1</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-160</t>
     </r>
     <r>
@@ -842,10 +943,16 @@
     </r>
   </si>
   <si>
-    <t>18-05-07_11-33_app1</t>
+    <t xml:space="preserve">18-05-07_11-33_app1</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-190</t>
     </r>
     <r>
@@ -879,10 +986,16 @@
     </r>
   </si>
   <si>
-    <t>18-05-07_11-34_app1</t>
+    <t xml:space="preserve">18-05-07_11-34_app1</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-182</t>
     </r>
     <r>
@@ -916,49 +1029,55 @@
     </r>
   </si>
   <si>
-    <t>18-05-07_11-35_app1</t>
-  </si>
-  <si>
-    <t>18-05-02_11-49_app1</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>18-05-08_14-08_app1</t>
-  </si>
-  <si>
-    <t>Folder does not exist</t>
-  </si>
-  <si>
-    <t>18-05-08_15-53_app1</t>
-  </si>
-  <si>
-    <t>18-05-08_16-03_app1</t>
-  </si>
-  <si>
-    <t>2-refri</t>
-  </si>
-  <si>
-    <t>-21(c)</t>
-  </si>
-  <si>
-    <t>18-04-05_10-32_app2_2859</t>
-  </si>
-  <si>
-    <t>-42(c)</t>
-  </si>
-  <si>
-    <t>18-04-05_10-34_app2_2859</t>
-  </si>
-  <si>
-    <t>-56(c)</t>
-  </si>
-  <si>
-    <t>18-04-05_10-36_app2_2859</t>
+    <t xml:space="preserve">18-05-07_11-35_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-02_11-49_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-08_14-08_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folder does not exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-08_15-53_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-08_16-03_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-refri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-05_10-32_app2_2859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-42(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-05_10-34_app2_2859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-56(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-05_10-36_app2_2859</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-25</t>
     </r>
     <r>
@@ -992,25 +1111,31 @@
     </r>
   </si>
   <si>
-    <t>18-04-06_11-07_app2</t>
-  </si>
-  <si>
-    <t>Folders exist but no output</t>
-  </si>
-  <si>
-    <t>-97(c)</t>
-  </si>
-  <si>
-    <t>18-04-06_11-09_app2</t>
-  </si>
-  <si>
-    <t>-175(c)</t>
-  </si>
-  <si>
-    <t>18-04-06_11-11_app2</t>
+    <t xml:space="preserve">18-04-06_11-07_app2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folders exist but no output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-97(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-06_11-09_app2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-175(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-06_11-11_app2</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-57</t>
     </r>
     <r>
@@ -1044,10 +1169,16 @@
     </r>
   </si>
   <si>
-    <t>18-05-08_12-05_app2</t>
+    <t xml:space="preserve">18-05-08_12-05_app2</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-82</t>
     </r>
     <r>
@@ -1081,10 +1212,16 @@
     </r>
   </si>
   <si>
-    <t>18-05-08_12-06_app2</t>
+    <t xml:space="preserve">18-05-08_12-06_app2</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-120</t>
     </r>
     <r>
@@ -1118,19 +1255,25 @@
     </r>
   </si>
   <si>
-    <t>18-05-08_12-07_app2</t>
-  </si>
-  <si>
-    <t>3-clotheswasher</t>
-  </si>
-  <si>
-    <t>-149(c)</t>
-  </si>
-  <si>
-    <t>18-04-09_11-13_app3</t>
+    <t xml:space="preserve">18-05-08_12-07_app2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-clotheswasher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-149(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-04-09_11-13_app3</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-222</t>
     </r>
     <r>
@@ -1164,10 +1307,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-09_11-15_app3</t>
+    <t xml:space="preserve">18-04-09_11-15_app3</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-295</t>
     </r>
     <r>
@@ -1201,10 +1350,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-09_11-17_app3</t>
+    <t xml:space="preserve">18-04-09_11-17_app3</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-275</t>
     </r>
     <r>
@@ -1238,10 +1393,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-09_12-18_app3</t>
+    <t xml:space="preserve">18-04-09_12-18_app3</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-287</t>
     </r>
     <r>
@@ -1275,10 +1436,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-09_12-20_app3</t>
+    <t xml:space="preserve">18-04-09_12-20_app3</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-320</t>
     </r>
     <r>
@@ -1312,13 +1479,19 @@
     </r>
   </si>
   <si>
-    <t>18-04-09_12-22_app3</t>
-  </si>
-  <si>
-    <t>4-drye</t>
+    <t xml:space="preserve">18-04-09_12-22_app3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-drye</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-251</t>
     </r>
     <r>
@@ -1352,10 +1525,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-10_12-04_app4</t>
+    <t xml:space="preserve">18-04-10_12-04_app4</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-344</t>
     </r>
     <r>
@@ -1389,10 +1568,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-10_12-06_app4</t>
+    <t xml:space="preserve">18-04-10_12-06_app4</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-412</t>
     </r>
     <r>
@@ -1426,10 +1611,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-10_12-12_app4</t>
+    <t xml:space="preserve">18-04-10_12-12_app4</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-291</t>
     </r>
     <r>
@@ -1463,10 +1654,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-11_12-01_app4</t>
+    <t xml:space="preserve">18-04-11_12-01_app4</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-329</t>
     </r>
     <r>
@@ -1500,10 +1697,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-11_12-03_app4</t>
+    <t xml:space="preserve">18-04-11_12-03_app4</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-374</t>
     </r>
     <r>
@@ -1537,13 +1740,19 @@
     </r>
   </si>
   <si>
-    <t>18-04-11_12-05_app4</t>
-  </si>
-  <si>
-    <t>6-kitchenapp</t>
+    <t xml:space="preserve">18-04-11_12-05_app4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-kitchenapp</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-603</t>
     </r>
     <r>
@@ -1577,10 +1786,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-12_16-11_app6</t>
+    <t xml:space="preserve">18-04-12_16-11_app6</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-675</t>
     </r>
     <r>
@@ -1614,10 +1829,16 @@
     </r>
   </si>
   <si>
-    <t>18-04-12_16-12_app6</t>
+    <t xml:space="preserve">18-04-12_16-12_app6</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">-424</t>
     </r>
     <r>
@@ -1651,475 +1872,496 @@
     </r>
   </si>
   <si>
-    <t>18-04-12_16-14_app6</t>
-  </si>
-  <si>
-    <t>Xt</t>
-  </si>
-  <si>
-    <t>18-05-15_10-58_app0</t>
-  </si>
-  <si>
-    <t>18-05-15_11-02_app0</t>
-  </si>
-  <si>
-    <t>18-05-15_11-04_app0</t>
-  </si>
-  <si>
-    <t>18-05-17_15-09_app0</t>
-  </si>
-  <si>
-    <t>{0:lr, 170:(lr/10)}</t>
-  </si>
-  <si>
-    <t>18-05-17_15-11_app0</t>
-  </si>
-  <si>
-    <t>unorm</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>5-dishwasher1</t>
-  </si>
-  <si>
-    <t>18-05-22_16-38_app5</t>
-  </si>
-  <si>
-    <t>18-05-22_16-39_app5</t>
-  </si>
-  <si>
-    <t>no norm</t>
-  </si>
-  <si>
-    <t>18-05-30_11-35_app5</t>
-  </si>
-  <si>
-    <t>0:0.001, 150:0.0001</t>
-  </si>
-  <si>
-    <t>18-05-30_11-54_app5</t>
-  </si>
-  <si>
-    <t>0:0.001, 150:0.00001</t>
-  </si>
-  <si>
-    <t>18-05-30_21-24_app5</t>
-  </si>
-  <si>
-    <t>0:0.01,</t>
-  </si>
-  <si>
-    <t>18-05-30_20-25_app5</t>
-  </si>
-  <si>
-    <t>0:0.001, 150:0.00001, 250:0.000001</t>
-  </si>
-  <si>
-    <t>18-05-30_20-27_app5</t>
-  </si>
-  <si>
-    <t>18-05-31_15-26_app5</t>
-  </si>
-  <si>
-    <t>18-05-31_15-27_app5</t>
-  </si>
-  <si>
-    <t>18-05-31_15-29_app5</t>
-  </si>
-  <si>
-    <t>0:0.001, 150:0.0001, 300:0.00001</t>
-  </si>
-  <si>
-    <t>18-06-01_10-52_app5</t>
-  </si>
-  <si>
-    <t>0:0.001,-</t>
-  </si>
-  <si>
-    <t>18-06-01_10-55_app5</t>
-  </si>
-  <si>
-    <t>18-06-01_10-57_app5</t>
-  </si>
-  <si>
-    <t>18-06-03_12-22_app5</t>
-  </si>
-  <si>
-    <t>18-06-03_12-24_app5</t>
-  </si>
-  <si>
-    <t>0:0.001, 300:0.0001</t>
-  </si>
-  <si>
-    <t>18-06-03_12-26_app5</t>
-  </si>
-  <si>
-    <t>7-microwave1</t>
-  </si>
-  <si>
-    <t>18-05-22_18-10_app7</t>
-  </si>
-  <si>
-    <t>18-05-23_12-07_app7</t>
-  </si>
-  <si>
-    <t>18-05-30_10-53_app7</t>
-  </si>
-  <si>
-    <t>0:0.001,</t>
-  </si>
-  <si>
-    <t>18-05-30_10-55_app7</t>
-  </si>
-  <si>
-    <t>18-05-30_16-30_app7</t>
-  </si>
-  <si>
-    <t>18-05-30_16-31_app7</t>
-  </si>
-  <si>
-    <t>18-05-30_19-24_app7</t>
-  </si>
-  <si>
-    <t>0:0.01, 150:0.001</t>
-  </si>
-  <si>
-    <t>18-05-30_19-41_app7</t>
-  </si>
-  <si>
-    <t>18-06-03_12-43_app7</t>
-  </si>
-  <si>
-    <t>18-06-03_12-44_app7</t>
-  </si>
-  <si>
-    <t>18-06-03_12-46_app7</t>
-  </si>
-  <si>
-    <t>clotheswasher1</t>
-  </si>
-  <si>
-    <t>18-05-22_00-08_app3</t>
-  </si>
-  <si>
-    <t>18-05-22_00-09_app3</t>
-  </si>
-  <si>
-    <t>3 -clotheswasher1</t>
-  </si>
-  <si>
-    <t>18-05-23_12-13_app3</t>
-  </si>
-  <si>
-    <t>{0:lr, 100:(lr/10)}</t>
-  </si>
-  <si>
-    <t>18-05-30_10-24_app3</t>
-  </si>
-  <si>
-    <t>18-05-30_10-26_app3</t>
-  </si>
-  <si>
-    <t>0:0.001, 100:0.0001</t>
-  </si>
-  <si>
-    <t>18-05-30_16-02_app3</t>
-  </si>
-  <si>
-    <t>18-05-30_16-07_app3</t>
-  </si>
-  <si>
-    <t>18-05-30_16-11_app3</t>
-  </si>
-  <si>
-    <t>0:0.001, 40:0.0001</t>
-  </si>
-  <si>
-    <t>18-05-30_21-09_app3</t>
-  </si>
-  <si>
-    <t>18-05-31_14-50_app3</t>
-  </si>
-  <si>
-    <t>18-05-31_14-52_app3</t>
-  </si>
-  <si>
-    <t>0:0.001, 100:0.0001,-</t>
-  </si>
-  <si>
-    <t>18-06-01_11-37_app3</t>
-  </si>
-  <si>
-    <t>18-06-01_11-39_app3</t>
-  </si>
-  <si>
-    <t>18-06-03_13-09_app3</t>
-  </si>
-  <si>
-    <t>18-06-03_13-11_app3</t>
-  </si>
-  <si>
-    <t>4-drye1</t>
-  </si>
-  <si>
-    <t>18-05-22_00-12_app4</t>
-  </si>
-  <si>
-    <t>18-05-22_16-33_app4</t>
-  </si>
-  <si>
-    <t>18-05-23_12-16_app4</t>
-  </si>
-  <si>
-    <t>18-05-30_11-21_app4</t>
-  </si>
-  <si>
-    <t>18-05-30_16-17_app4</t>
-  </si>
-  <si>
-    <t>18-05-30_19-41_app4</t>
-  </si>
-  <si>
-    <t>18-05-31_15-00_app4</t>
-  </si>
-  <si>
-    <t>18-05-31_15-17_app4</t>
-  </si>
-  <si>
-    <t>18-06-01_10-39_app4</t>
-  </si>
-  <si>
-    <t>18-06-01_10-41_app4</t>
-  </si>
-  <si>
-    <t>18-06-01_10-42_app4</t>
-  </si>
-  <si>
-    <t>18-06-03_13-28_app4</t>
-  </si>
-  <si>
-    <t>18-06-03_13-30_app4</t>
-  </si>
-  <si>
-    <t>18-06-04_21-39_app4</t>
-  </si>
-  <si>
-    <t>0:0.001, 440:0.0001</t>
-  </si>
-  <si>
-    <t>18-06-04_22-00_app4</t>
-  </si>
-  <si>
-    <t>18-06-04_22-45_app4</t>
-  </si>
-  <si>
-    <t>18-06-04_22-46_app4</t>
-  </si>
-  <si>
-    <t>18-06-05_09-40_app4</t>
-  </si>
-  <si>
-    <t>18-05-24_20-19_app0</t>
-  </si>
-  <si>
-    <t>18-05-24_20-20_app0</t>
-  </si>
-  <si>
-    <t>18-05-29_20-10_app0</t>
-  </si>
-  <si>
-    <t>18-05-29_23-36_app0</t>
-  </si>
-  <si>
-    <t>18-05-29_23-37_app0</t>
-  </si>
-  <si>
-    <t>18-05-30_09-38_app0</t>
-  </si>
-  <si>
-    <t>18-05-30_09-53_app0</t>
-  </si>
-  <si>
-    <t>0:0.001, 100: 0.0001</t>
-  </si>
-  <si>
-    <t>18-05-30_15-52_app0</t>
-  </si>
-  <si>
-    <t>18-05-30_20-48_app0</t>
-  </si>
-  <si>
-    <t>0:0.001, 100:0.00001</t>
-  </si>
-  <si>
-    <t>18-05-30_20-51_app0</t>
-  </si>
-  <si>
-    <t>No output</t>
-  </si>
-  <si>
-    <t>18-05-30_20-55_app0</t>
-  </si>
-  <si>
-    <t>18-05-30_20-56_app0</t>
-  </si>
-  <si>
-    <t>0:0.001, 100;0.0001,-</t>
-  </si>
-  <si>
-    <t>18-06-01_11-31_app0</t>
-  </si>
-  <si>
-    <t>18-06-01_11-32_app0</t>
-  </si>
-  <si>
-    <t>18-06-01_11-35_app0</t>
-  </si>
-  <si>
-    <t>18-06-03_13-55_app0</t>
-  </si>
-  <si>
-    <t>18-06-03_13-57_app0</t>
-  </si>
-  <si>
-    <t>0:0.001, 230:0.0001</t>
-  </si>
-  <si>
-    <t>18-05-15_11-20_app1</t>
-  </si>
-  <si>
-    <t>18-05-15_11-32_app1</t>
-  </si>
-  <si>
-    <t>18-05-24_20-21_app1</t>
-  </si>
-  <si>
-    <t>18-05-25_16-14_app1</t>
-  </si>
-  <si>
-    <t>18-05-30_10-00_app1</t>
-  </si>
-  <si>
-    <t>18-05-30_15-55_app1</t>
-  </si>
-  <si>
-    <t>0:0.01,-</t>
-  </si>
-  <si>
-    <t>18-05-31_14-15_app1</t>
-  </si>
-  <si>
-    <t>18-05-31_14-36_app1</t>
-  </si>
-  <si>
-    <t>18-06-01_12-05_app1</t>
-  </si>
-  <si>
-    <t>18-06-01_12-07_app1</t>
-  </si>
-  <si>
-    <t>18-06-03_16-00_app1</t>
-  </si>
-  <si>
-    <t>18-06-03_16-15_app1</t>
-  </si>
-  <si>
-    <t>2-refrigerator1</t>
-  </si>
-  <si>
-    <t>18-05-20_23-51_app2</t>
-  </si>
-  <si>
-    <t>18-05-20_23-52_app2</t>
-  </si>
-  <si>
-    <t>18-05-25_16-16_app2</t>
-  </si>
-  <si>
-    <t>18-05-26_21-15_app2</t>
-  </si>
-  <si>
-    <t>18-05-29_00-45_app2</t>
-  </si>
-  <si>
-    <t>{0:lr, 150:(lr/10)}</t>
-  </si>
-  <si>
-    <t>18-05-27_19-27_app2</t>
-  </si>
-  <si>
-    <t>18-05-27_19-28_app2</t>
-  </si>
-  <si>
-    <t>{0:lr, 200:(lr/10)}</t>
-  </si>
-  <si>
-    <t>18-05-30_10-08_app2</t>
-  </si>
-  <si>
-    <t>18-05-30_10-12_app2</t>
-  </si>
-  <si>
-    <t>18-05-30_10-13_app2</t>
-  </si>
-  <si>
-    <t>18-05-30_16-00_app2</t>
-  </si>
-  <si>
-    <t>18-05-31_11-30_app2</t>
-  </si>
-  <si>
-    <t>18-06-01_11-05_app2</t>
-  </si>
-  <si>
-    <t>18-06-01_11-08_app2</t>
-  </si>
-  <si>
-    <t>18-06-01_11-14_app2</t>
-  </si>
-  <si>
-    <t>6-kitchenapp1</t>
-  </si>
-  <si>
-    <t>18-05-22_17-53_app6</t>
-  </si>
-  <si>
-    <t>18-05-22_18-04_app6</t>
-  </si>
-  <si>
-    <t>18-05-23_12-20_app6</t>
-  </si>
-  <si>
-    <t>18-05-29_00-48_app6</t>
-  </si>
-  <si>
-    <t>18-05-30_10-44_app6</t>
-  </si>
-  <si>
-    <t>18-05-30_16-26_app6</t>
-  </si>
-  <si>
-    <t>18-05-30_16-27_app6</t>
-  </si>
-  <si>
-    <t>Dave's</t>
-  </si>
-  <si>
-    <t>There are some folders without output, or some results without folders</t>
-  </si>
-  <si>
-    <t>elbrus</t>
-  </si>
-  <si>
-    <t>Has some folders before 03-22 that might have interesting things. Although there were before a fixing was done</t>
-  </si>
-  <si>
-    <t>From now on, using the whole year for window</t>
-  </si>
-  <si>
-    <t>Without normalization directly in Kwtts</t>
+    <t xml:space="preserve">18-04-12_16-14_app6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-15_10-58_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-15_11-02_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-15_11-04_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-17_15-09_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0:lr, 170:(lr/10)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-17_15-11_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unorm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-dishwasher1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-22_16-38_app5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-22_16-39_app5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no norm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_11-35_app5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:0.001, 150:0.0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_11-54_app5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:0.001, 150:0.00001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_21-24_app5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:0.01,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_20-25_app5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:0.001, 150:0.00001, 250:0.000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_20-27_app5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-31_15-26_app5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-31_15-27_app5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-31_15-29_app5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:0.001, 150:0.0001, 300:0.00001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-01_10-52_app5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:0.001,-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-01_10-55_app5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-01_10-57_app5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-03_12-22_app5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-03_12-24_app5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:0.001, 300:0.0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-03_12-26_app5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-microwave1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-22_18-10_app7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-23_12-07_app7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_10-53_app7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:0.001,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_10-55_app7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_16-30_app7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_16-31_app7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_19-24_app7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:0.01, 150:0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_19-41_app7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-03_12-43_app7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-03_12-44_app7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-03_12-46_app7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clotheswasher1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-22_00-08_app3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-22_00-09_app3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 -clotheswasher1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-23_12-13_app3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0:lr, 100:(lr/10)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_10-24_app3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_10-26_app3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:0.001, 100:0.0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_16-02_app3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_16-07_app3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_16-11_app3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:0.001, 40:0.0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_21-09_app3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-31_14-50_app3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-31_14-52_app3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:0.001, 100:0.0001,-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-01_11-37_app3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-01_11-39_app3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-03_13-09_app3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-03_13-11_app3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-drye1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-22_00-12_app4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-22_16-33_app4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-23_12-16_app4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_11-21_app4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_16-17_app4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_19-41_app4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-31_15-00_app4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-31_15-17_app4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-01_10-39_app4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-01_10-41_app4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-01_10-42_app4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-03_13-28_app4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-03_13-30_app4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-04_21-39_app4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:0.001, 440:0.0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-04_22-00_app4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-04_22-45_app4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-04_22-46_app4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-05_09-40_app4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-24_20-19_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-24_20-20_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-29_20-10_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-29_23-36_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-29_23-37_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_09-38_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_09-53_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:0.001, 100: 0.0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_15-52_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_20-48_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:0.001, 100:0.00001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_20-51_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_20-55_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_20-56_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:0.001, 100;0.0001,-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-01_11-31_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-01_11-32_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-01_11-35_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-03_13-55_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-03_13-57_app0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:0.001, 230:0.0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-15_11-20_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-15_11-32_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-24_20-21_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-25_16-14_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_10-00_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_15-55_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:0.01,-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-31_14-15_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-31_14-36_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-01_12-05_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-01_12-07_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-03_16-00_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-03_16-15_app1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-refrigerator1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-20_23-51_app2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-20_23-52_app2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-25_16-16_app2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-26_21-15_app2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-29_00-45_app2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0:lr, 150:(lr/10)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-27_19-27_app2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-27_19-28_app2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0:lr, 200:(lr/10)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_10-08_app2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_10-12_app2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_10-13_app2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_16-00_app2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-31_11-30_app2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-01_11-05_app2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-01_11-08_app2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-01_11-14_app2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-kitchenapp1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-22_17-53_app6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-22_18-04_app6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-23_12-20_app6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-29_00-48_app6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_10-44_app6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_16-26_app6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-05-30_16-27_app6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-07_13-21_app7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-08_11-19_app4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-07_14-07_app5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-08_11-17_app6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-08_11-16_app7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dave's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are some folders without output, or some results without folders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elbrus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has some folders before 03-22 that might have interesting things. Although there were before a fixing was done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From now on, using the whole year for window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Without normalization directly in Kwtts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-07_13-21_app7 should be the same results as 18-06-03_12-46_app7, although 18-06-08_11-16_app7 is close</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-06-07_14-07_app5 should be the same results as 18-06-01_10-52_app5</t>
   </si>
 </sst>
 </file>
@@ -2127,11 +2369,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="MM:SS.00"/>
     <numFmt numFmtId="166" formatCode="MM/DD/YY"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2159,6 +2401,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2262,11 +2509,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2355,11 +2602,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="13" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3231,25 +3476,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z203"/>
+  <dimension ref="A1:Z209"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A129" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O149" activeCellId="0" sqref="O149"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A180" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O209" activeCellId="0" sqref="O209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.03571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7040816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="14" min="8" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="29.2857142857143"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="7.47959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="31.4540816326531"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="7.29081632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10048,12 +10290,12 @@
       <c r="S128" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="U128" s="10"/>
       <c r="Z128" s="0" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C129" s="0"/>
       <c r="M129" s="0" t="n">
         <v>0.296</v>
       </c>
@@ -11720,7 +11962,7 @@
       <c r="M156" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="N156" s="10" t="n">
+      <c r="N156" s="0" t="n">
         <v>0.101</v>
       </c>
       <c r="O156" s="0" t="s">
@@ -12335,7 +12577,7 @@
       <c r="M165" s="0" t="n">
         <v>0.08</v>
       </c>
-      <c r="N165" s="10" t="n">
+      <c r="N165" s="0" t="n">
         <v>0.092</v>
       </c>
       <c r="O165" s="0" t="s">
@@ -12782,7 +13024,7 @@
       <c r="M172" s="0" t="n">
         <v>0.12</v>
       </c>
-      <c r="N172" s="10" t="n">
+      <c r="N172" s="0" t="n">
         <v>0.151</v>
       </c>
       <c r="O172" s="0" t="s">
@@ -13170,7 +13412,7 @@
       <c r="M177" s="0" t="n">
         <v>0.069</v>
       </c>
-      <c r="N177" s="10" t="n">
+      <c r="N177" s="0" t="n">
         <v>0.122</v>
       </c>
       <c r="O177" s="0" t="s">
@@ -13217,7 +13459,7 @@
       <c r="M178" s="0" t="n">
         <v>0.133</v>
       </c>
-      <c r="N178" s="10" t="n">
+      <c r="N178" s="0" t="n">
         <v>0.139</v>
       </c>
       <c r="O178" s="0" t="s">
@@ -14866,6 +15108,406 @@
       </c>
       <c r="Z203" s="0" t="n">
         <v>30</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C205" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="D205" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="E205" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F205" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="G205" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="H205" s="0" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I205" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="J205" s="0" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K205" s="0" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="L205" s="0" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M205" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="N205" s="5" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O205" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="P205" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q205" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R205" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S205" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T205" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U205" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V205" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W205" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X205" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y205" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z205" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C206" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="D206" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E206" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F206" s="0" t="n">
+        <v>-204</v>
+      </c>
+      <c r="G206" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H206" s="0" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I206" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J206" s="0" t="n">
+        <v>-207</v>
+      </c>
+      <c r="K206" s="0" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L206" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M206" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="N206" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O206" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="P206" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q206" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R206" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S206" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T206" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U206" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V206" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W206" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X206" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y206" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z206" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C207" s="4" t="n">
+        <v>400</v>
+      </c>
+      <c r="D207" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E207" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F207" s="0" t="n">
+        <v>-27</v>
+      </c>
+      <c r="G207" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H207" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I207" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J207" s="0" t="n">
+        <v>-99</v>
+      </c>
+      <c r="K207" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="L207" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="M207" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="N207" s="5" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="O207" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="P207" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q207" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="R207" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S207" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T207" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U207" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V207" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W207" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X207" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y207" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z207" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C208" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D208" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="E208" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F208" s="0" t="n">
+        <v>-93</v>
+      </c>
+      <c r="G208" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H208" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I208" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="J208" s="0" t="n">
+        <v>-118</v>
+      </c>
+      <c r="K208" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L208" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M208" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="N208" s="5" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="O208" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="P208" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q208" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="R208" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S208" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T208" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U208" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V208" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W208" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X208" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y208" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z208" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C209" s="7" t="n">
+        <v>600</v>
+      </c>
+      <c r="D209" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="E209" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F209" s="0" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G209" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H209" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I209" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J209" s="0" t="n">
+        <v>-8</v>
+      </c>
+      <c r="K209" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L209" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="M209" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="N209" s="5" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="O209" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="P209" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q209" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R209" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="S209" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T209" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U209" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="V209" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="W209" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="X209" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y209" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z209" s="0" t="n">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -14884,47 +15526,57 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="70.3214285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="n">
+      <c r="A3" s="10" t="n">
         <v>43235</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
+      <c r="A4" s="10" t="n">
         <v>43250</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>328</v>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
